--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.263</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.565</v>
+        <v>19.341</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.125</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.288</v>
+        <v>19.125</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.987</v>
+        <v>15.879</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.94359220407762</v>
+        <v>-8.534940727206862</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.94455015684499</v>
+        <v>11.07756840868079</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.9600193508228</v>
+        <v>18.64124038219186</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.92888106697481</v>
+        <v>-12.52657978427569</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.95272806944649</v>
+        <v>8.120612293630284</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.95484208524488</v>
+        <v>15.05593825364586</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.93739682830751</v>
+        <v>-4.317402920047602</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.96995636308587</v>
+        <v>18.89710875754188</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.97277154427618</v>
+        <v>27.19620578343334</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.94654655954888</v>
+        <v>20.68614074737159</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.95206439132413</v>
+        <v>31.71988604873102</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.95059727272427</v>
+        <v>37.12231204857379</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.96071578303962</v>
+        <v>-0.8880189406568384</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.95038403478138</v>
+        <v>23.06841466755507</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.98182705956074</v>
+        <v>32.8348145134356</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.93289383885612</v>
+        <v>-5.385842032536079</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.95443097981823</v>
+        <v>14.23386955756881</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.96292743530941</v>
+        <v>21.80023679983956</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.92797279526362</v>
+        <v>-9.389055220474479</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.93805456543461</v>
+        <v>11.26367555331147</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.94130259897049</v>
+        <v>18.20299095610492</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.93062549574336</v>
+        <v>-1.174928420302553</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.95318581232958</v>
+        <v>22.04679115430552</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.94544845831487</v>
+        <v>2.90625035022445</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.95095295338983</v>
+        <v>22.52019277785653</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.96010660085744</v>
+        <v>30.08364559293305</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.92992877648703</v>
+        <v>-1.082200367312698</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.96348603722023</v>
+        <v>19.56666731078881</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.96540814840532</v>
+        <v>26.50177546033693</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.93838963710602</v>
+        <v>7.127955298926377</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.98293891720787</v>
+        <v>30.34395514533945</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.98128967180391</v>
+        <v>38.64286356685817</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.98346055071906</v>
+        <v>32.13417435694474</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.99509226004053</v>
+        <v>43.16801793876458</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.99182524930867</v>
+        <v>48.57034217326883</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.97456745836277</v>
+        <v>10.5583421137736</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.99045699814971</v>
+        <v>34.51662949003342</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.99220421245813</v>
+        <v>44.28273789248748</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.94680319782198</v>
+        <v>6.05878324431249</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.95906113294106</v>
+        <v>25.67992827321744</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.96293134650731</v>
+        <v>33.24607641775127</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.92835303504007</v>
+        <v>2.058758862698124</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.95981814071569</v>
+        <v>22.71316537383028</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.96438056978774</v>
+        <v>29.65226304019368</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.97988124037078</v>
+        <v>33.4970726414068</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.9365194695954</v>
+        <v>5.773628621477183</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.94519801928593</v>
+        <v>25.38820857449762</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.95823447317044</v>
+        <v>32.95191504646412</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.92776734243884</v>
+        <v>1.787104975132348</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.96191209908944</v>
+        <v>22.43666454763239</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.96368279874016</v>
+        <v>29.37210706809502</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.93155262228441</v>
+        <v>9.997312570527566</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.98035715464478</v>
+        <v>33.21394572592304</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.98500108189764</v>
+        <v>41.51310088919284</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.98799162104601</v>
+        <v>35.00443237845103</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.99240216493115</v>
+        <v>46.03824422328556</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.99917765235405</v>
+        <v>51.44077884159502</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.94075609554441</v>
+        <v>13.42783843825348</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.97130865114567</v>
+        <v>37.38716527399127</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.9852033463909</v>
+        <v>47.15347542737889</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.93879570770351</v>
+        <v>8.927199696608323</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.9578377709501</v>
+        <v>28.54898225426312</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.9632596825866</v>
+        <v>36.11538412734329</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.92778957184929</v>
+        <v>4.9291025401951</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.95617148165719</v>
+        <v>25.58420094830283</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.96378747857389</v>
+        <v>32.52363306984579</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.93500104001959</v>
+        <v>13.14426042103399</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.97769344150711</v>
+        <v>36.3681016361695</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.93066237927048</v>
+        <v>-2.30929083507603</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.93532223603485</v>
+        <v>17.30434910497898</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.94913242470138</v>
+        <v>24.86857127575523</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.92761767293356</v>
+        <v>-6.297677102703933</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.95607939090397</v>
+        <v>14.3507378143456</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.96158805177437</v>
+        <v>21.2867648494648</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.92858138146452</v>
+        <v>1.91154428023297</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.96796088516842</v>
+        <v>25.12718725856392</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.97835167216475</v>
+        <v>33.42681973261311</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.97417891484453</v>
+        <v>26.9163913200433</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.98031434104974</v>
+        <v>37.95011408686854</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.98562956484146</v>
+        <v>43.35297986568035</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.93034117942118</v>
+        <v>5.340922681326997</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.95339506738505</v>
+        <v>29.29920728842704</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.98303307092683</v>
+        <v>39.06608873900483</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.93432394795868</v>
+        <v>0.8414120218106795</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.95471446858979</v>
+        <v>20.46225444835009</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.96283107685428</v>
+        <v>28.02917202747117</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.92776348864647</v>
+        <v>-3.158548196111401</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.95171992028016</v>
+        <v>17.4954054473345</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.96105698428882</v>
+        <v>24.43542208954851</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.9286070547066</v>
+        <v>5.05562324551941</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.96842960243509</v>
+        <v>28.27847415819052</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.9562569714322</v>
+        <v>30.34876768592526</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.94837104462185</v>
+        <v>23.83689768980171</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.96779686191225</v>
+        <v>34.87585270641874</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.97329703331521</v>
+        <v>40.28029565235566</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.93879380390654</v>
+        <v>2.260685448421537</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.94970969739362</v>
+        <v>26.22935487989626</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.95804263396359</v>
+        <v>35.99629360191464</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.941468180564</v>
+        <v>3.982810640187932</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.95275124034702</v>
+        <v>23.60583946724351</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.96943156304361</v>
+        <v>31.17371583935651</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.92791301690783</v>
+        <v>-0.01007418884832489</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.93590267712954</v>
+        <v>20.64728782911309</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.94249221823189</v>
+        <v>27.58735568382097</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.93073997667618</v>
+        <v>8.206297191045774</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.95323929951097</v>
+        <v>31.43132773714704</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.97578582408556</v>
+        <v>39.7348928515422</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.95630999436218</v>
+        <v>33.22885923021009</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.98368371903187</v>
+        <v>44.26871724105477</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.98718021489128</v>
+        <v>49.67462007983168</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.93780251768858</v>
+        <v>11.64661439416453</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.9505060114548</v>
+        <v>35.61894084443166</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.96459922165635</v>
+        <v>45.38797083698408</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.98292048880702</v>
+        <v>41.79886063400578</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.97964759808298</v>
+        <v>35.2883662883729</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.99389547767981</v>
+        <v>46.32741951624381</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.99599136335485</v>
+        <v>51.73176072022839</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.95520965978653</v>
+        <v>13.71048142738548</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.98747970638108</v>
+        <v>37.68100483257091</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.98327697524282</v>
+        <v>47.44765214774473</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.95367758129122</v>
+        <v>15.42938154435408</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.96349378929612</v>
+        <v>35.0538438132305</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.979341411165</v>
+        <v>42.62150102107306</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.92877961793759</v>
+        <v>11.43968575087284</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.97500025012219</v>
+        <v>32.09872351366435</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.98250642091317</v>
+        <v>39.038573559396</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.93385919946445</v>
+        <v>19.65703630495578</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>30.00017839285316</v>
+        <v>42.88355518251875</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>30.01001669836578</v>
+        <v>51.18693168430148</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>30.004089301903</v>
+        <v>44.68227378073492</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>30.01896230225987</v>
+        <v>55.72223001058352</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>30.02481275537823</v>
+        <v>61.12803108497268</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.97172939461968</v>
+        <v>23.09835633231806</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30.01386746528094</v>
+        <v>47.07253670799683</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>30.01814790309334</v>
+        <v>56.84127527530642</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.99420362089823</v>
+        <v>44.67013644151051</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.97767877472166</v>
+        <v>38.15966253525197</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.98678253361777</v>
+        <v>49.1986839466599</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.99595083680118</v>
+        <v>54.60323560488392</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.94347713852961</v>
+        <v>16.58101608523894</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.98546804565634</v>
+        <v>40.55257896023453</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.98993973789903</v>
+        <v>50.31942809597113</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.94028550543967</v>
+        <v>18.29941309562023</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.96091840358448</v>
+        <v>37.92451290269149</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.97822548941183</v>
+        <v>45.49242381037025</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.92792929905274</v>
+        <v>14.31164457631654</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.97301106071223</v>
+        <v>34.97137423455648</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.9804495133183</v>
+        <v>41.91155871454872</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.93683492619712</v>
+        <v>22.52904720553952</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.00153359899029</v>
+        <v>45.75619940949979</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>30.01803449679062</v>
+        <v>54.05982268833087</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>30.01206311358087</v>
+        <v>47.55518523613192</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.02505758810814</v>
+        <v>58.59510964904028</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>30.03053938794539</v>
+        <v>64.00112114474904</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.94816735388955</v>
+        <v>25.97050613292991</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.01294731160593</v>
+        <v>49.94572594523343</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>30.02409405215059</v>
+        <v>59.71466633556223</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.98287625957212</v>
+        <v>36.5809862764538</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.9545791677097</v>
+        <v>30.06875238232088</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.96385209999059</v>
+        <v>41.10768475310384</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.97166811508318</v>
+        <v>46.51256761509659</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.93600030296227</v>
+        <v>8.491231396686185</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.9747103984365</v>
+        <v>32.4617518838288</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.98139246964189</v>
+        <v>42.22917234337329</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.93839799568436</v>
+        <v>10.21300540206526</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.95900643741236</v>
+        <v>29.83716509836595</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.98075350667339</v>
+        <v>37.40559177223996</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.92808246689239</v>
+        <v>6.223373647521594</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.97148019577239</v>
+        <v>26.88195855371667</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.98251900130359</v>
+        <v>33.82272762566207</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.92920910574906</v>
+        <v>14.43978981027474</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.99767471351545</v>
+        <v>37.66595172919027</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>30.01566970515053</v>
+        <v>45.97005238282689</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>30.00060412787805</v>
+        <v>39.46365490724541</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>30.01734575323628</v>
+        <v>50.50349027134574</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>30.02984284306611</v>
+        <v>55.90983297759304</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.93769366010886</v>
+        <v>17.88010116383451</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>30.00480560449891</v>
+        <v>41.85427862734342</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>30.02507356244618</v>
+        <v>51.62379037521906</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>23.05051339036631</v>
+        <v>-1.064235039299792</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.82732316764825</v>
+        <v>18.54861647974858</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>25.51308835105607</v>
+        <v>26.11052067658907</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>19.20949295089727</v>
+        <v>-5.053189720008636</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>22.41710872845431</v>
+        <v>15.59462371707137</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.51519882321987</v>
+        <v>22.52802682376032</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.75686829140853</v>
+        <v>3.156603591831963</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.93155529973527</v>
+        <v>26.37098471400018</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.05757402050638</v>
+        <v>34.66825032353925</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23.1601628542455</v>
+        <v>28.15973108932074</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.2372187584949</v>
+        <v>39.19263573753118</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>24.74189105887335</v>
+        <v>44.59385939035541</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.0016533503927</v>
+        <v>6.585527097173763</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.97854374047586</v>
+        <v>30.54207126572645</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.45787281320111</v>
+        <v>40.30641037729264</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.87027738758947</v>
+        <v>2.078227076432864</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.39184860653014</v>
+        <v>21.69827992912859</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>30.00561282175898</v>
+        <v>29.26287869591065</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>18.74992768888054</v>
+        <v>-1.92230116674445</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.76180655410732</v>
+        <v>18.73105000378255</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>23.14687584252826</v>
+        <v>25.66844166588792</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.64310807492686</v>
+        <v>6.292441639561257</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>26.88401652791469</v>
+        <v>29.51402954347519</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>22.2469787541597</v>
+        <v>10.37554942561847</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>23.31872215674345</v>
+        <v>29.98983407644515</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>24.27260560365804</v>
+        <v>37.55151911540712</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>19.5740713859815</v>
+        <v>6.389782751021681</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25.98455849156478</v>
+        <v>27.03927160927377</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.71920078104319</v>
+        <v>33.97245689548355</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>20.77292136135563</v>
+        <v>14.60055474642398</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.22268308481269</v>
+        <v>37.8164238677923</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.33385323040251</v>
+        <v>46.11350087087952</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30.89626853331505</v>
+        <v>39.60635733420814</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.1090814885045</v>
+        <v>50.63936024967437</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.09870587806343</v>
+        <v>56.04048213534803</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>26.93723377513086</v>
+        <v>18.03048095862503</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.92830727627652</v>
+        <v>41.98887870464294</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.35138698349126</v>
+        <v>51.75292638017537</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>22.8271534721448</v>
+        <v>13.52144537833918</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.7188200724567</v>
+        <v>33.1429315096551</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.24990919868663</v>
+        <v>40.7073111791144</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>18.79356046342349</v>
+        <v>9.524105608016139</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.5575641232303</v>
+        <v>30.17913233692535</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.15204323285516</v>
+        <v>37.1163062523916</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>19.17014755436999</v>
+        <v>17.73982737486208</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>35.71731826192718</v>
+        <v>40.96290343372844</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>20.28362022460711</v>
+        <v>13.24236857856895</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>20.33524190224151</v>
+        <v>32.8572906653428</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.81711637164451</v>
+        <v>40.4192293270854</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>18.7175898128081</v>
+        <v>9.258528765628608</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>24.28332299078405</v>
+        <v>29.90870942219452</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>24.45367510395954</v>
+        <v>36.84222903459725</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>19.77094301237351</v>
+        <v>17.46935266193814</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.9208765438688</v>
+        <v>40.68585500112248</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.20720598971929</v>
+        <v>48.98317871301025</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>31.09391728314609</v>
+        <v>42.47605591111754</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>31.64206810543074</v>
+        <v>53.50902709561954</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>34.96083977580383</v>
+        <v>58.91035933177237</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>19.9470612146879</v>
+        <v>20.89941792541945</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>23.72531165446762</v>
+        <v>44.85885500560299</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.81392932858369</v>
+        <v>54.62310439680992</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>20.1117038968085</v>
+        <v>16.38930266269959</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.60555957965044</v>
+        <v>36.01142623306849</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.07972993622826</v>
+        <v>43.57605959701446</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>18.6485778205772</v>
+        <v>12.39388990782468</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.10913563119003</v>
+        <v>33.04960843765069</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.93672950183954</v>
+        <v>39.98711676356594</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>20.89272174010226</v>
+        <v>20.60966364796841</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>32.09869366339595</v>
+        <v>43.83337293162093</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>19.23014908975399</v>
+        <v>5.160325647872792</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>19.25684469746972</v>
+        <v>24.77430782302063</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.87092983244784</v>
+        <v>32.33676214257854</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>18.61627755521491</v>
+        <v>1.174623411565431</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>22.83192710366725</v>
+        <v>21.82365953035285</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.1024591398937</v>
+        <v>28.75776361862891</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>18.8600300180342</v>
+        <v>9.384461202987705</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>24.59742692799467</v>
+        <v>32.59997347455349</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>27.10708481527209</v>
+        <v>40.89777445982689</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>27.06196387652524</v>
+        <v>34.38889195995624</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.68193050070607</v>
+        <v>45.42177408504106</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.5146654824755</v>
+        <v>50.82343744712328</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>18.60621655755985</v>
+        <v>12.81337915817549</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>21.03774113991045</v>
+        <v>36.77177411434523</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.11656044559971</v>
+        <v>46.53659475009964</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>19.98401581887513</v>
+        <v>8.304391820311576</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>26.26024878605013</v>
+        <v>27.92557536104423</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>30.36982876028811</v>
+        <v>35.49072439009818</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>18.64540388640266</v>
+        <v>4.307116201989839</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.63026984204555</v>
+        <v>24.96169008455</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>30.19520410675796</v>
+        <v>31.89978289244503</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>18.83214888108538</v>
+        <v>12.52190361060455</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.90676465031082</v>
+        <v>35.74462270128843</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.71521190120167</v>
+        <v>37.8141739379589</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.83537547535682</v>
+        <v>31.30385065093683</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>31.31209994753021</v>
+        <v>42.34196416019641</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.28826657444447</v>
+        <v>47.74520435874989</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.20923548802665</v>
+        <v>9.727594643431171</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.69775743155597</v>
+        <v>33.69637281507549</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.97156844011295</v>
+        <v>43.46125038462752</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.9633109008697</v>
+        <v>11.44573015172157</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.51038878072731</v>
+        <v>31.06909971112814</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.99593605981516</v>
+        <v>38.63520751341365</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>18.7255712251294</v>
+        <v>7.455529136312162</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>20.41324473910055</v>
+        <v>28.11351089817218</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.96355818742748</v>
+        <v>35.05165494515948</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>19.58938824688356</v>
+        <v>15.67251616978625</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.30697932242416</v>
+        <v>38.89741449699441</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.58405150696952</v>
+        <v>47.19914738112981</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>27.82950197647655</v>
+        <v>40.69465957327735</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>36.20864819011845</v>
+        <v>51.73367602225527</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>37.60350717761324</v>
+        <v>57.13837600201133</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>21.47534471078844</v>
+        <v>19.11237194580813</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.23453771678944</v>
+        <v>43.08480666685954</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.43783157500185</v>
+        <v>52.85177522095499</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.50415683549272</v>
+        <v>49.26285928684966</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>35.88412690853069</v>
+        <v>42.75391152239773</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.84939657430213</v>
+        <v>53.79212322911984</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>40.20425658644361</v>
+        <v>59.1952616842169</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>24.33197849742045</v>
+        <v>21.17598306715454</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>37.53607705574355</v>
+        <v>45.14661502154989</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>36.25773236236831</v>
+        <v>54.91120119157334</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.05713413390099</v>
+        <v>22.89089372591682</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>19.029452101848</v>
+        <v>18.90388141243873</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.93793303022186</v>
+        <v>39.56353874006696</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>37.21184829050833</v>
+        <v>46.50146496777937</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>20.91474713601576</v>
+        <v>27.12184750168226</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.10637486247386</v>
+        <v>50.34823399030505</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>43.45304070460899</v>
+        <v>58.64977825992536</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>43.57486591592273</v>
+        <v>52.14666604150453</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>47.64643557102943</v>
+        <v>63.18578069570025</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>48.63120907623858</v>
+        <v>68.59037890975979</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>33.33172134040657</v>
+        <v>30.56270597358182</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>47.0951038765706</v>
+        <v>54.53699442929347</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>48.87583456431973</v>
+        <v>64.30367156534372</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>40.70465548511204</v>
+        <v>52.13357556446793</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>32.83186958666556</v>
+        <v>45.62464827516213</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>37.4430512268061</v>
+        <v>56.66282817146133</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.48339136803478</v>
+        <v>62.06617704710128</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>20.83754888492638</v>
+        <v>24.04595831749087</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>36.42284333448252</v>
+        <v>48.01762961642258</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>39.03847012025416</v>
+        <v>57.78241757179954</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>20.96862529060689</v>
+        <v>25.76036589888984</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.45260962783489</v>
+        <v>45.3858061885155</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.36824178482355</v>
+        <v>52.95194849265305</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.67337338831395</v>
+        <v>21.77528064972294</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.9686372284362</v>
+        <v>42.43562977700638</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.24023224402724</v>
+        <v>49.37389039431751</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>21.42289859082056</v>
+        <v>29.99329878560762</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>41.43004129660859</v>
+        <v>53.22031850994846</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>46.70224516881394</v>
+        <v>61.5221095233794</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>45.74780247286003</v>
+        <v>55.01901779261753</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>50.01637516694671</v>
+        <v>66.05810063577927</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>50.47494522728716</v>
+        <v>71.46290923741695</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>23.16422782189508</v>
+        <v>33.43429615633089</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>46.46722704422038</v>
+        <v>57.40962392349819</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>50.9795082204492</v>
+        <v>67.17650284753289</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>37.62536442706271</v>
+        <v>44.04530260970886</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>27.154347686894</v>
+        <v>37.5346155358046</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30.12794487018012</v>
+        <v>48.57270641038041</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>32.84294948385929</v>
+        <v>53.97638645528455</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>20.08122318400845</v>
+        <v>15.95705092552269</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.54342924089756</v>
+        <v>39.92767994130644</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.87132878819646</v>
+        <v>49.69303916782427</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>21.5947852485374</v>
+        <v>17.67483525047281</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.16009903094085</v>
+        <v>37.29933553109684</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>35.4929275058692</v>
+        <v>44.86599356068812</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>18.80543919674319</v>
+        <v>13.68788696461136</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.07522531635873</v>
+        <v>34.34709145704356</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.19313525512848</v>
+        <v>41.28593662763681</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.24752858892784</v>
+        <v>21.90491874176812</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>41.64328604112687</v>
+        <v>45.13094829029647</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>46.40496632899556</v>
+        <v>53.43321664119206</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>42.55883024806158</v>
+        <v>46.92836509032325</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>47.71623186850797</v>
+        <v>57.96735890355249</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>51.26708889877876</v>
+        <v>63.37249868108277</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>22.62188092202743</v>
+        <v>25.34476869663568</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>45.3686964225711</v>
+        <v>49.31905421954933</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>51.01856586005051</v>
+        <v>59.08650444822113</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>27.96992937959584</v>
+        <v>-0.3829915858872432</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.0111782098089</v>
+        <v>19.23129583018452</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.98455401681152</v>
+        <v>26.79317229558022</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.64190556832493</v>
+        <v>-4.372710026778595</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.94691970031224</v>
+        <v>16.27656087451519</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.05331743403798</v>
+        <v>23.20991552297674</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>27.43896149720528</v>
+        <v>3.837940546337659</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.29895367658383</v>
+        <v>27.05393676020013</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.67763816283106</v>
+        <v>35.35123398221548</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.08102414749754</v>
+        <v>28.84243309380313</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.71658844624448</v>
+        <v>39.87588150622581</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.59551196026226</v>
+        <v>45.27733195903953</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.64166371196377</v>
+        <v>7.266384536903939</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.07333231207199</v>
+        <v>31.22488005574358</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.0290889957155</v>
+        <v>40.98929155280199</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.5257953445645</v>
+        <v>2.756259229409903</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.26221530790957</v>
+        <v>22.37774825077245</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.03262532960949</v>
+        <v>29.94231952538199</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>26.51823693230213</v>
+        <v>-1.245033702161226</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.47420860921134</v>
+        <v>19.40977511034542</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.90906136924976</v>
+        <v>26.34711865644827</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26.79715334961749</v>
+        <v>6.970566565699283</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.07574642562091</v>
+        <v>30.19376983460209</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.85569247282948</v>
+        <v>11.05738827764217</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.330478675111</v>
+        <v>30.67310891170926</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.68872409770358</v>
+        <v>38.23476620356074</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.75159387471411</v>
+        <v>7.070858045431788</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.14709476216066</v>
+        <v>27.72180447179151</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.32693859803369</v>
+        <v>34.65494128053773</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>27.20247154952741</v>
+        <v>15.28248735715463</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.17380916129656</v>
+        <v>38.49997165809235</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.15696383124249</v>
+        <v>46.7970802599334</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>30.80458773669379</v>
+        <v>40.28965515862147</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.82117641670769</v>
+        <v>51.3232018439122</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>31.78147300297245</v>
+        <v>56.72455052294548</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.45712190570994</v>
+        <v>18.71193410618308</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>30.78082160258263</v>
+        <v>42.67228332462024</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>30.9578446415363</v>
+        <v>52.43640337102271</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>27.99350509364512</v>
+        <v>14.20007315794883</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.70350578000755</v>
+        <v>33.82299554418726</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.15224837802431</v>
+        <v>41.38734770592565</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.53210246206627</v>
+        <v>10.20196890193629</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.85699309417433</v>
+        <v>30.85845337675947</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>30.53333870479861</v>
+        <v>37.79557915719634</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>26.66405974625891</v>
+        <v>18.41854818491059</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.84335995544107</v>
+        <v>41.64323969696498</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>27.10718152531167</v>
+        <v>13.92429818028868</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>27.42517807453487</v>
+        <v>33.54065628322131</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.02996570690517</v>
+        <v>41.10256722141786</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.50369669228586</v>
+        <v>9.939694943937962</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.68146766628061</v>
+        <v>30.59133320517331</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.76011649073592</v>
+        <v>37.52480437034261</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.88218739871527</v>
+        <v>18.15137614730427</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.82208519827616</v>
+        <v>41.36949369831574</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.23533837889378</v>
+        <v>49.66684903211716</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>31.0338339429089</v>
+        <v>43.15944467420444</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>31.27181561255507</v>
+        <v>54.1929596306047</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>32.15094367894717</v>
+        <v>59.59451867199878</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.11776890383172</v>
+        <v>21.5809619705668</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.7648488903989</v>
+        <v>45.54235058499897</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.6046882666142</v>
+        <v>55.30667236367218</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.16971300708858</v>
+        <v>17.06802126091632</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.43071210056949</v>
+        <v>36.69158111954037</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.10161553483223</v>
+        <v>44.25618699913797</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.48697328085152</v>
+        <v>13.07184415495326</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.94710253531384</v>
+        <v>33.72902046725061</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>30.28289825952628</v>
+        <v>40.66648068813411</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>27.19497184806362</v>
+        <v>21.28847540214916</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.94400121261886</v>
+        <v>44.51380017088262</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.73683980391318</v>
+        <v>5.841825379761627</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.97209017686158</v>
+        <v>25.4572435121173</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>27.64439826829197</v>
+        <v>33.01967014717785</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.47606190378024</v>
+        <v>1.855359612051398</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.23693206555927</v>
+        <v>22.5058532610693</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.70446841696123</v>
+        <v>29.43990895067371</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.56135643817837</v>
+        <v>10.06605464722666</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.02703897400464</v>
+        <v>33.28318206911023</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.87127969570805</v>
+        <v>41.58101471292058</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.70344888467584</v>
+        <v>35.07185054913542</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.23018941633484</v>
+        <v>46.10527644488069</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.8215865826581</v>
+        <v>51.50716663122317</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.59308474739717</v>
+        <v>13.49449311123349</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>27.81753059094996</v>
+        <v>37.45483953125118</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.47093335496118</v>
+        <v>47.21973258667218</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>26.98870030517088</v>
+        <v>8.982680329353439</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.9862052600716</v>
+        <v>28.60530009924683</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.15882350972784</v>
+        <v>36.17042168285535</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.48518327447698</v>
+        <v>4.984640251806791</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.76238951600746</v>
+        <v>25.64067184258566</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.0862833154973</v>
+        <v>32.57871659401358</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.54879318858919</v>
+        <v>13.20028510418636</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.1990160196327</v>
+        <v>36.42461961835453</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.34038046094637</v>
+        <v>38.49394607715611</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.72372588052174</v>
+        <v>31.98334112538815</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>30.43562347196594</v>
+        <v>43.02199859526227</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>30.98391250907022</v>
+        <v>48.42546577404038</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.57185291445651</v>
+        <v>10.40524054499506</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.69919665536732</v>
+        <v>34.37597053566638</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.67362536954503</v>
+        <v>44.14092078379882</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>27.85483946708669</v>
+        <v>12.12447267891069</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.99949244885198</v>
+        <v>31.74927858845102</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.40858201064707</v>
+        <v>39.31535893452313</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.51004397414595</v>
+        <v>8.133507610459656</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.08192217056814</v>
+        <v>28.79294726329463</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>27.60601221803767</v>
+        <v>35.73104319177536</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>26.78670373657506</v>
+        <v>16.3513522870255</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.6442078852633</v>
+        <v>39.57786615677206</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.45839934945963</v>
+        <v>47.87963092953281</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.33011965594935</v>
+        <v>41.37486181797134</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.91298344155958</v>
+        <v>52.41442226902676</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.38792105398919</v>
+        <v>57.81934929163241</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>27.35047050106629</v>
+        <v>19.79072937251452</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.57867928145147</v>
+        <v>43.7651161085946</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.90561990511423</v>
+        <v>53.53215733878174</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>32.10770204172665</v>
+        <v>49.94322738449431</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>31.95533893229542</v>
+        <v>43.43399804438512</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>33.14295384249795</v>
+        <v>54.47275371764009</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.2222593608514</v>
+        <v>59.87611914615682</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.48318300543384</v>
+        <v>21.85422490384222</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>32.4666359722698</v>
+        <v>45.82680879975963</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>32.13080487147684</v>
+        <v>55.5914676338591</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.11550108022367</v>
+        <v>23.57023194125496</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>30.14845109442125</v>
+        <v>43.19647121880892</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>31.56914076636797</v>
+        <v>50.76233238537155</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>26.59684767776399</v>
+        <v>19.58245577797741</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.24397656235006</v>
+        <v>40.24357110017989</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>32.08154918635727</v>
+        <v>47.1814491904447</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>27.14089120686955</v>
+        <v>27.80127956500744</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>33.81593497931566</v>
+        <v>51.02928168401046</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.24439912341928</v>
+        <v>59.33085782853355</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>34.36714191706874</v>
+        <v>52.82746439550429</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>35.54547773875262</v>
+        <v>63.8671230576691</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>35.84108359372016</v>
+        <v>69.27194830768904</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>30.95196361920434</v>
+        <v>31.24165939741236</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>35.31001296489553</v>
+        <v>55.21789999050053</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>35.79974075564497</v>
+        <v>64.98464978805031</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>33.31465203972705</v>
+        <v>52.81403466146695</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>31.15457335059229</v>
+        <v>46.30482580531724</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>32.44798209520973</v>
+        <v>57.34354967017019</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>33.33414952482907</v>
+        <v>62.74712553133007</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>27.41616376824094</v>
+        <v>24.72429112111443</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>32.16449975097485</v>
+        <v>48.69791442334279</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>32.9094189866267</v>
+        <v>58.46277505959971</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.3920233194438</v>
+        <v>26.439795024448</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.67145867070963</v>
+        <v>46.06667178359736</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.38311405154197</v>
+        <v>53.63278663936829</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.49661660594757</v>
+        <v>22.45394606025102</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.68272323167318</v>
+        <v>43.1157532184519</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.86575637314513</v>
+        <v>50.05396572837832</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.33853968394927</v>
+        <v>30.67282188473812</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.65089783191882</v>
+        <v>53.90145727126331</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>35.17989030111547</v>
+        <v>62.20328018282486</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>34.97666131487177</v>
+        <v>55.69990724630246</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>36.19866197536263</v>
+        <v>66.73953409950023</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>36.42713537913225</v>
+        <v>72.14456974916014</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.03938788157217</v>
+        <v>34.11334063865955</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>35.12331634752611</v>
+        <v>58.09062060509085</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>36.40561275227192</v>
+        <v>67.85757220723075</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>32.41137955854248</v>
+        <v>44.72533142099063</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.22926765233874</v>
+        <v>38.21436267267426</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>30.17363232352765</v>
+        <v>49.2529975142529</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.02212576994866</v>
+        <v>54.65690456366018</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.03526082785913</v>
+        <v>16.63495341751785</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.05106177167797</v>
+        <v>40.6075343662793</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>32.02584112180131</v>
+        <v>50.37296630555464</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.43679503917782</v>
+        <v>18.35383431679905</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.53894838320608</v>
+        <v>37.9797710077754</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.68775141993058</v>
+        <v>45.54640162796521</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>26.52881661199149</v>
+        <v>14.36612220739071</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.90020232385014</v>
+        <v>35.02678465673704</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.91537148507538</v>
+        <v>41.96558176843028</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>26.64944996162992</v>
+        <v>22.58401160966546</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>33.54073417227683</v>
+        <v>45.8116567589551</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.0784687336221</v>
+        <v>54.11395704459072</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>33.88223761621985</v>
+        <v>47.60882418015829</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>35.43439821451786</v>
+        <v>58.64836200229932</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>36.58365366324466</v>
+        <v>64.05372884684878</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>27.61326892744604</v>
+        <v>26.0233828972059</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>34.5524845439568</v>
+        <v>49.99962054901697</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>36.35974599114589</v>
+        <v>59.76714348791789</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.02649874641154</v>
+        <v>-9.077614984767497</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.30841640504392</v>
+        <v>10.53586587054881</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.60949285492093</v>
+        <v>18.09790046027852</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>26.46369787324275</v>
+        <v>-13.06796701724194</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.44683198370472</v>
+        <v>7.580450157372621</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.72677988828134</v>
+        <v>14.513903951149</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>27.29427979917108</v>
+        <v>-4.857921501738264</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>30.18160554764317</v>
+        <v>18.35730182116877</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>30.58409166651014</v>
+        <v>26.65474584927561</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.25452812018948</v>
+        <v>20.14631409925276</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.83127368344508</v>
+        <v>31.17943937781284</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.74147631813049</v>
+        <v>36.58087372999078</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.04084222367742</v>
+        <v>-1.428782096759409</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.48591465227422</v>
+        <v>22.52897257541199</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.03555056620424</v>
+        <v>32.29363410967697</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>27.25757102718077</v>
+        <v>-5.937452327921978</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.03416980876904</v>
+        <v>13.6832304112447</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.89566689674905</v>
+        <v>21.24795986668367</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>26.37953202356233</v>
+        <v>-9.939378783364322</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>27.23472272920135</v>
+        <v>10.71457653020262</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.58830039256121</v>
+        <v>17.6520193195755</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>26.64394509810504</v>
+        <v>-1.72438347325512</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.64366914640543</v>
+        <v>21.49804719530821</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.24317129182758</v>
+        <v>2.362732390834804</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.94998601457775</v>
+        <v>21.97764646282927</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.61339211728692</v>
+        <v>29.53946188584574</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>26.56454117360422</v>
+        <v>-1.624431415165777</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.7600875778842</v>
+        <v>19.02566128392901</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.90241649718912</v>
+        <v>25.9588972459761</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>27.26731700944381</v>
+        <v>6.586592845302885</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>31.59332685680794</v>
+        <v>29.80330425555904</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>31.4565904687355</v>
+        <v>38.10055966987055</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>31.77942924948232</v>
+        <v>31.59350373050811</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.88094115808779</v>
+        <v>42.62672727875018</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.71280819836327</v>
+        <v>48.02805985906012</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.55273886026706</v>
+        <v>10.01673503669529</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>32.45834729728846</v>
+        <v>33.97634341688989</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.67428164635263</v>
+        <v>43.74071350364191</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.22903924308496</v>
+        <v>5.506329188944601</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.52782657541277</v>
+        <v>25.12844529194818</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.93402165264232</v>
+        <v>32.69295564142929</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>26.40707976699609</v>
+        <v>1.507591426928098</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.37301249241839</v>
+        <v>22.16322240213422</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.82793259805448</v>
+        <v>29.10044743390095</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>26.58236572716847</v>
+        <v>9.723565758725936</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.42134957730862</v>
+        <v>32.94748467062696</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>27.34033672612276</v>
+        <v>5.229601599710332</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.30903657068306</v>
+        <v>24.84515314725955</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.38861414738709</v>
+        <v>32.40722222469957</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.36672696720976</v>
+        <v>1.244364804613252</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.4931127895397</v>
+        <v>21.89514934491408</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.71152911262653</v>
+        <v>28.82871967290974</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.88151838039614</v>
+        <v>9.455440961057644</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.47851058241232</v>
+        <v>32.67278562817852</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.86415223013265</v>
+        <v>40.97028778230025</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>32.2497984918455</v>
+        <v>34.46325258348985</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.65334618659849</v>
+        <v>45.49644440452765</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.2909207720782</v>
+        <v>50.89798735240446</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>27.87766492576106</v>
+        <v>12.8857222296201</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>30.72541287046918</v>
+        <v>36.84637002077874</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>31.96618847509981</v>
+        <v>46.61094184723537</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>27.54950892619137</v>
+        <v>8.374236626577368</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.39444390672785</v>
+        <v>27.9969902084898</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.94740340313363</v>
+        <v>35.56175428408709</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.3568637954151</v>
+        <v>4.377426029393956</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.88742704733298</v>
+        <v>25.03374884836454</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.86352543510148</v>
+        <v>31.9713083304109</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.15184093004764</v>
+        <v>12.59345232983376</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.09078526374143</v>
+        <v>35.81800450544402</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>26.76653772893063</v>
+        <v>-2.852888817280718</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.33020416394791</v>
+        <v>16.76172276419889</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.48775483729261</v>
+        <v>24.32430753670222</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.34518609460791</v>
+        <v>-6.839988149171877</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.82914515915789</v>
+        <v>13.80965178238328</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.57389868342655</v>
+        <v>20.74380663275279</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.45283308129484</v>
+        <v>1.37010183332664</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.07526169198981</v>
+        <v>24.58645637493872</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.25330585127683</v>
+        <v>32.88443583767149</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.47975605885795</v>
+        <v>26.37564080514163</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.03736035541665</v>
+        <v>37.4087435696059</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>31.74710419317951</v>
+        <v>42.8106176637019</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.75565363057354</v>
+        <v>4.799235715603782</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.00476145239484</v>
+        <v>28.75884131315216</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>31.83446325727014</v>
+        <v>38.52398441860349</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.99503946504569</v>
+        <v>0.288878034819259</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.91198970524563</v>
+        <v>19.91069153264082</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.83848015848881</v>
+        <v>27.4759713104837</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>26.35362772228767</v>
+        <v>-3.709795538882435</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.57567939370523</v>
+        <v>16.94538256201075</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.65843709923047</v>
+        <v>23.88352657239339</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.43321556499122</v>
+        <v>4.50524436097383</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>30.17493482054348</v>
+        <v>27.72880628549931</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.9658427781394</v>
+        <v>29.79837030058694</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.2930480822786</v>
+        <v>23.28813426669295</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.09702650078457</v>
+        <v>34.3264686541031</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.55551999773854</v>
+        <v>39.72991975444926</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.29271235497471</v>
+        <v>1.710985755651887</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.34611299551085</v>
+        <v>25.68097524238656</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.11364991997203</v>
+        <v>35.44617550213239</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>27.83219178004787</v>
+        <v>3.433022992536831</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.94425958439394</v>
+        <v>23.05702267504919</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>30.4635684810823</v>
+        <v>30.62326114910512</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.37330641855957</v>
+        <v>-0.5585755855509156</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.01332322898428</v>
+        <v>20.10001068030816</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>27.54959460186226</v>
+        <v>27.03820578328678</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.70150479552764</v>
+        <v>7.658664324302304</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.60576301505743</v>
+        <v>30.88440565021447</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>30.6670807731432</v>
+        <v>39.18631722534666</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.00260228156377</v>
+        <v>32.68191710523932</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.63653683780705</v>
+        <v>43.72115444057668</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>32.03246492354917</v>
+        <v>49.12606539457828</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.20650874550212</v>
+        <v>11.09873656204409</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.40477364965056</v>
+        <v>35.07238281880608</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.65172864276986</v>
+        <v>44.83967403567486</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.77910408645275</v>
+        <v>41.24761922714923</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.52314978021075</v>
+        <v>34.73875882899993</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.91683943786111</v>
+        <v>45.7771914164142</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.11989915035804</v>
+        <v>51.18054076837767</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.87645086764665</v>
+        <v>13.15993775595528</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>32.23563109158367</v>
+        <v>37.13178115597542</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.94215317792733</v>
+        <v>46.8966900048308</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.97261694323122</v>
+        <v>14.87874991738748</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>30.06119484670679</v>
+        <v>34.50418296685301</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>31.59522914904367</v>
+        <v>42.07020226842086</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.47891590754902</v>
+        <v>10.89034026187026</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>30.93368239059686</v>
+        <v>31.55060219672201</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>31.61258418557046</v>
+        <v>38.48857946942893</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.05164324328583</v>
+        <v>19.10855928845193</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.6085517883439</v>
+        <v>42.33578886424594</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>34.44981491031794</v>
+        <v>50.63751181740962</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>34.26984554846624</v>
+        <v>44.13448739995361</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>35.73485220231761</v>
+        <v>55.17382294312493</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.23306153057364</v>
+        <v>60.57863212637447</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.71653592171231</v>
+        <v>22.54963430226847</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>35.11653507752865</v>
+        <v>46.5251344240795</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.45692164141794</v>
+        <v>56.29213421147061</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>32.93113551178005</v>
+        <v>44.11838587272767</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>31.16277755278737</v>
+        <v>37.60954595523229</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>32.1093001966541</v>
+        <v>48.64794673628022</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.08383717742329</v>
+        <v>54.05150652593362</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27.95939399083962</v>
+        <v>16.02996332979351</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>32.05914594429025</v>
+        <v>40.00284615115582</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>32.61544457242023</v>
+        <v>49.7679568094819</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>27.77710436158721</v>
+        <v>17.7482723666727</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.78184009068999</v>
+        <v>37.37434290455745</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.51019820013038</v>
+        <v>44.94061590349212</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.38184454703657</v>
+        <v>13.7617899250299</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.5590808899682</v>
+        <v>34.42274370229107</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>31.562457841622</v>
+        <v>41.3610554044278</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>27.36144370306387</v>
+        <v>21.98006099370648</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.57841074628514</v>
+        <v>45.20792384396019</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>35.3352368477815</v>
+        <v>53.50989357196714</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>34.81756305549639</v>
+        <v>47.00688964763377</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>36.00391616812283</v>
+        <v>58.04619338392455</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.80103101065119</v>
+        <v>63.45121297208446</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.64541228906664</v>
+        <v>25.42127493186079</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>34.78348596664596</v>
+        <v>49.39781444191975</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.88058274607739</v>
+        <v>59.16501604124606</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.81970104104458</v>
+        <v>36.02966496358361</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.90739127088023</v>
+        <v>29.51906512616345</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.80500503954564</v>
+        <v>40.55737688800751</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>30.62523714581023</v>
+        <v>45.9612678672954</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.13474244776345</v>
+        <v>7.940607928025866</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>30.93212234389817</v>
+        <v>31.91244839670763</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>31.8003242425778</v>
+        <v>41.67813036051346</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.48269356578137</v>
+        <v>9.662293951655084</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.53336711101266</v>
+        <v>29.28742442577173</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.68227026627562</v>
+        <v>36.8542131872682</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>26.39578792980933</v>
+        <v>5.673948359499587</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.46593574651828</v>
+        <v>26.33375743129987</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.76674169629388</v>
+        <v>33.27265373304122</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>26.50080900415378</v>
+        <v>13.89123300050981</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>33.02842096833651</v>
+        <v>37.11810561709568</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>35.1293478460913</v>
+        <v>45.42055271782213</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>33.45577879490747</v>
+        <v>38.91578883787689</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>34.98835538675346</v>
+        <v>49.95500354672923</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.58375684034644</v>
+        <v>55.36035433125777</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>27.25755365274414</v>
+        <v>17.33129944464438</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>33.54822768733107</v>
+        <v>41.30679664115495</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>35.81557565323543</v>
+        <v>51.07456957961948</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.95699853254555</v>
+        <v>0.5061198599572485</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.95948871249382</v>
+        <v>20.12130832590445</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.96181487739623</v>
+        <v>27.68535533280361</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.95293039931194</v>
+        <v>-3.484356158346277</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.95646325328707</v>
+        <v>17.16574162184393</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.95769228394892</v>
+        <v>24.10134969489239</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.9548850605272</v>
+        <v>4.72611764701308</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.960390844682</v>
+        <v>27.94344613766053</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.96167932734812</v>
+        <v>36.24294243651842</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.95792278882307</v>
+        <v>29.73240018874831</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.95943344235171</v>
+        <v>40.76714786566605</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.95934760220415</v>
+        <v>46.16972772550444</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.95786363154635</v>
+        <v>8.155632417889802</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.95848410733415</v>
+        <v>32.11527543309761</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.96189134982892</v>
+        <v>41.88203839672109</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.95531929311199</v>
+        <v>3.654370147385389</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.9582132533056</v>
+        <v>23.27676135582099</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.96198369504811</v>
+        <v>30.84350363098336</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.95269836975747</v>
+        <v>-0.3476806488612461</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.95331456839056</v>
+        <v>20.30795604081446</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.95366765887379</v>
+        <v>27.24755360303196</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.95328118152555</v>
+        <v>7.867743352800499</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.95506694083578</v>
+        <v>31.09228002556425</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.95853559634887</v>
+        <v>11.94800041333529</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.96122162070755</v>
+        <v>31.56462224549487</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.96272608023765</v>
+        <v>39.12845007613906</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.9531378231719</v>
+        <v>7.960712888599215</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.96104998054597</v>
+        <v>28.61248635714763</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.96142650355506</v>
+        <v>35.54787660022326</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.95497340516436</v>
+        <v>16.17216554515629</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.96633889553083</v>
+        <v>39.39098228070269</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.96591868754685</v>
+        <v>47.69028995864618</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.96745067226594</v>
+        <v>41.18112358432732</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.97022372162472</v>
+        <v>52.21596954927166</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.96997273367523</v>
+        <v>57.61844763285261</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.96421655763159</v>
+        <v>19.60268317527571</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.96967905190975</v>
+        <v>43.56418005398346</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.96972522262539</v>
+        <v>53.33065155380017</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.95690753701005</v>
+        <v>15.09968507328902</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.95950708779899</v>
+        <v>34.72350979492681</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.96073124925975</v>
+        <v>42.29003295446294</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.95284427670744</v>
+        <v>11.10082323785171</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.95733945837679</v>
+        <v>31.75813575290304</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.95877222035638</v>
+        <v>38.69751555922765</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.95330203956688</v>
+        <v>19.31722636751543</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.96228804174551</v>
+        <v>42.54325144091113</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.95673651737987</v>
+        <v>14.81546978478455</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.96054965609487</v>
+        <v>34.43272916453348</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.96362711010597</v>
+        <v>41.99681065624064</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.95283051403953</v>
+        <v>10.83010941669918</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.96005002041638</v>
+        <v>31.48257480504104</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.96161704149382</v>
+        <v>38.41829942519631</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.95509086628336</v>
+        <v>19.04161399923815</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.9673359530355</v>
+        <v>42.261064064911</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.96771179833763</v>
+        <v>50.56061848890953</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.96732194982908</v>
+        <v>44.0514728225621</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.96886140675422</v>
+        <v>55.08628705065563</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.96998563391037</v>
+        <v>60.48897552319134</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.96106383650218</v>
+        <v>22.47227068744949</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.9700933922048</v>
+        <v>46.43480706687261</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.97159338153895</v>
+        <v>56.20148031832296</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.95621930850468</v>
+        <v>17.96819269332228</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.95949583430195</v>
+        <v>37.59265496585134</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.9612472760304</v>
+        <v>45.15943185813272</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.95271568834533</v>
+        <v>13.97125816864068</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.95642736352933</v>
+        <v>34.62926260601283</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.95932662656272</v>
+        <v>41.56897687350657</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.95532219016406</v>
+        <v>22.18771329656759</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.96242993852075</v>
+        <v>45.4143717067834</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.95480898699983</v>
+        <v>6.731970081417654</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.95638082004291</v>
+        <v>26.34828939620079</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.95908114093662</v>
+        <v>33.91288661291092</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.95279417715644</v>
+        <v>2.744746998567035</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.9570696055942</v>
+        <v>23.39606766881819</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.96061040296986</v>
+        <v>30.3323768333273</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.95328958407818</v>
+        <v>10.95526531735275</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.96027433693977</v>
+        <v>34.17372515238456</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.96516378237819</v>
+        <v>42.47375691164142</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.95934766168142</v>
+        <v>35.96285128831606</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.96056700965929</v>
+        <v>46.99757643496535</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.96324081088713</v>
+        <v>52.4005960856242</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.95549314460514</v>
+        <v>14.38477451202185</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.96232615450663</v>
+        <v>38.34626860652178</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.97056330880095</v>
+        <v>48.11351318166645</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.95384792428891</v>
+        <v>9.88182463231372</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.95758488511436</v>
+        <v>29.50534672162335</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.96043022223868</v>
+        <v>37.07263934605179</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.95271672976026</v>
+        <v>5.883026952379833</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.95605505698871</v>
+        <v>26.53988656229533</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.95933195191117</v>
+        <v>33.48018538027007</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.95293349747133</v>
+        <v>14.09849558987331</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.95971860995467</v>
+        <v>37.32416364411345</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.95627220989888</v>
+        <v>39.39465583940886</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.95511288684402</v>
+        <v>32.88230868382219</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.96030194840258</v>
+        <v>43.92226629076275</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.96130734133202</v>
+        <v>49.32686313058365</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.95360396677536</v>
+        <v>11.30348832079379</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.95519490999969</v>
+        <v>35.27536765546994</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.95615369359609</v>
+        <v>45.04266937133796</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.95682578314868</v>
+        <v>13.02230522532714</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.95902617137906</v>
+        <v>32.64801370407564</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.96320712769615</v>
+        <v>40.21626522643861</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.95270278427151</v>
+        <v>9.030583273194434</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.9533618430223</v>
+        <v>29.69085130521328</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.95382776138504</v>
+        <v>36.6312013828808</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.95376267317291</v>
+        <v>17.24825181398419</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.95592029072045</v>
+        <v>40.47609948585271</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.96027441727669</v>
+        <v>48.78006400747982</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.95718286393958</v>
+        <v>42.27355343725161</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.96543450689224</v>
+        <v>53.31441408517433</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.96508283426643</v>
+        <v>58.72047089222325</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.95402791572362</v>
+        <v>20.68870032434561</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.95581822651648</v>
+        <v>44.6642367699486</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.95748759047951</v>
+        <v>54.43362987864985</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.96461124051294</v>
+        <v>50.84543869909247</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.96254278224948</v>
+        <v>44.33446724139604</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.96853421968197</v>
+        <v>55.37452306718613</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.97045980161267</v>
+        <v>60.77901815421818</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.95839179216716</v>
+        <v>22.75397417613884</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.96535414320098</v>
+        <v>46.72770757973079</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.96470614803838</v>
+        <v>56.49471786823106</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.95861943344739</v>
+        <v>24.46956581579705</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.96200212461687</v>
+        <v>44.09670781101771</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.96799060651431</v>
+        <v>51.66474015103596</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.95311552272847</v>
+        <v>20.48103305361063</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.96258423592532</v>
+        <v>41.14297691861644</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.96559384854613</v>
+        <v>48.08310916772255</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.95507097776743</v>
+        <v>28.69968081781313</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.97018032936182</v>
+        <v>51.92901689683855</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.97567378472291</v>
+        <v>60.23279278946471</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.97188554333582</v>
+        <v>53.72765798408771</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.97931351259767</v>
+        <v>64.7686168586806</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.98228926391426</v>
+        <v>70.17457189064133</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.96330941425988</v>
+        <v>32.14113217681027</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.97561022932167</v>
+        <v>56.11852264283083</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.97567725890431</v>
+        <v>65.8876243058313</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.96833907266299</v>
+        <v>53.7168057821185</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.96251316370434</v>
+        <v>47.205854772915</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.96452080131945</v>
+        <v>58.24587878254577</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.96922259359438</v>
+        <v>63.6505843285007</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.95794437371222</v>
+        <v>25.62460008908907</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.96575046780809</v>
+        <v>49.59937300378304</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.96698925391776</v>
+        <v>59.36658511376355</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.95753990825451</v>
+        <v>27.33968858827937</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.96191395715151</v>
+        <v>46.96746814377387</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.96786782339471</v>
+        <v>54.53575418787669</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.95284094454425</v>
+        <v>23.35308318597388</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.96125161644318</v>
+        <v>44.01571897196401</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.96573456554857</v>
+        <v>50.95618566141955</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.95618613236475</v>
+        <v>31.57178302181783</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.969772691197</v>
+        <v>54.80175244846235</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.97845481674606</v>
+        <v>63.10577512231588</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.97373897950622</v>
+        <v>56.60066077798511</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.97815199029517</v>
+        <v>67.6415878355359</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.98341488996846</v>
+        <v>73.04775329367122</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.96067471242979</v>
+        <v>35.01337328597661</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.97179906425473</v>
+        <v>58.99180323017673</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.97528196461148</v>
+        <v>68.76110671702109</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.96386809785755</v>
+        <v>45.6270750567388</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.95657688944765</v>
+        <v>39.11436400433648</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.95856746347141</v>
+        <v>50.15429896973158</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.9612131303794</v>
+        <v>55.55933573739502</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.95463072751163</v>
+        <v>17.53423484233825</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.96238965547167</v>
+        <v>41.50796531294144</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.96492055748705</v>
+        <v>51.27574877311712</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.95608996939707</v>
+        <v>19.25270051162816</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.96055269186813</v>
+        <v>38.87953990441575</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.96822265195157</v>
+        <v>46.44834174097387</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.95283283687346</v>
+        <v>15.2642317806643</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.96066718118683</v>
+        <v>35.92572275172948</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.96733250737395</v>
+        <v>42.86677406297177</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.9530488707754</v>
+        <v>23.4819450987063</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.96604369701577</v>
+        <v>46.71092418671684</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.97773216548796</v>
+        <v>55.01542425991202</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.96735438843965</v>
+        <v>48.50854983633586</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.9723456690677</v>
+        <v>59.54938784185832</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.98172564270578</v>
+        <v>64.95588452816672</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.95367891765301</v>
+        <v>26.92238776185478</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.96499878939801</v>
+        <v>50.89977530099632</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.97587110940416</v>
+        <v>60.66965017154017</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test2/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-8.534940727206862</v>
+        <v>-8.534940727296334</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.07756840868079</v>
+        <v>11.07756840866032</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.64124038219186</v>
+        <v>18.64124038221847</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-12.52657978427569</v>
+        <v>-12.52657978427546</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.120612293630284</v>
+        <v>8.120612293582308</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.05593825364586</v>
+        <v>15.05593825366246</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-4.317402920047602</v>
+        <v>-4.317402920003719</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18.89710875754188</v>
+        <v>18.89710875760896</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.19620578343334</v>
+        <v>27.19620578352247</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20.68614074737159</v>
+        <v>20.6861407473866</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.71988604873102</v>
+        <v>31.71988604873682</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.12231204857379</v>
+        <v>37.12231204853718</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.8880189406568384</v>
+        <v>-0.888018940676961</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23.06841466755507</v>
+        <v>23.06841466756348</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.8348145134356</v>
+        <v>32.83481451333772</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-5.385842032536079</v>
+        <v>-5.385842032562113</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14.23386955756881</v>
+        <v>14.23386955759439</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>21.80023679983956</v>
+        <v>21.80023679984059</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-9.389055220474479</v>
+        <v>-9.389055220520522</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11.26367555331147</v>
+        <v>11.26367555333841</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18.20299095610492</v>
+        <v>18.2029909561496</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.174928420302553</v>
+        <v>-1.174928420246165</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.04679115430552</v>
+        <v>22.04679115431086</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.90625035022445</v>
+        <v>2.90625035019762</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.52019277785653</v>
+        <v>22.52019277786472</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.08364559293305</v>
+        <v>30.08364559294146</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-1.082200367312698</v>
+        <v>-1.082200367260857</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>19.56666731078881</v>
+        <v>19.56666731075164</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.50177546033693</v>
+        <v>26.5017754603367</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.127955298926377</v>
+        <v>7.127955298954912</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30.34395514533945</v>
+        <v>30.34395514536685</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.64286356685817</v>
+        <v>38.64286356686965</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32.13417435694474</v>
+        <v>32.13417435702739</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>43.16801793876458</v>
+        <v>43.16801793880551</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48.57034217326883</v>
+        <v>48.570342173311</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10.5583421137736</v>
+        <v>10.55834211375916</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>34.51662949003342</v>
+        <v>34.51662949004434</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.28273789248748</v>
+        <v>44.28273789248236</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6.05878324431249</v>
+        <v>6.058783244291686</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.67992827321744</v>
+        <v>25.67992827322653</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33.24607641775127</v>
+        <v>33.24607641774979</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.058758862698124</v>
+        <v>2.058758862706195</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.71316537383028</v>
+        <v>22.71316537380117</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.65226304019368</v>
+        <v>29.65226304023791</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>33.4970726414068</v>
+        <v>33.49707264145137</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.773628621477183</v>
+        <v>5.773628621443873</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.38820857449762</v>
+        <v>25.3882085745473</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.95191504646412</v>
+        <v>32.95191504646606</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.787104975132348</v>
+        <v>1.787104975214429</v>
       </c>
     </row>
     <row r="51">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.37210706809502</v>
+        <v>29.3721070681148</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9.997312570527566</v>
+        <v>9.997312570535296</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>33.21394572592304</v>
+        <v>33.21394572591781</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>41.51310088919284</v>
+        <v>41.51310088922081</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35.00443237845103</v>
+        <v>35.00443237847058</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>46.03824422328556</v>
+        <v>46.03824422329113</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.44077884159502</v>
+        <v>51.44077884160787</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.42783843825348</v>
+        <v>13.42783843827815</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>37.38716527399127</v>
+        <v>37.3871652740422</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>47.15347542737889</v>
+        <v>47.15347542738151</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.927199696608323</v>
+        <v>8.927199696582516</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.54898225426312</v>
+        <v>28.54898225430336</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.11538412734329</v>
+        <v>36.11538412736046</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.9291025401951</v>
+        <v>4.929102540149284</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.58420094830283</v>
+        <v>25.58420094830113</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.52363306984579</v>
+        <v>32.52363306988592</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>13.14426042103399</v>
+        <v>13.14426042102921</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.3681016361695</v>
+        <v>36.36810163616325</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-2.30929083507603</v>
+        <v>-2.309290835124688</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>17.30434910497898</v>
+        <v>17.30434910506095</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>24.86857127575523</v>
+        <v>24.86857127583356</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-6.297677102703933</v>
+        <v>-6.297677102688926</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14.3507378143456</v>
+        <v>14.35073781441075</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>21.2867648494648</v>
+        <v>21.28676484950959</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.91154428023297</v>
+        <v>1.911544280265485</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.12718725856392</v>
+        <v>25.12718725859518</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.42681973261311</v>
+        <v>33.4268197326238</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>26.9163913200433</v>
+        <v>26.91639132010333</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>37.95011408686854</v>
+        <v>37.95011408688991</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.35297986568035</v>
+        <v>43.3529798657115</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5.340922681326997</v>
+        <v>5.340922681313241</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.29920728842704</v>
+        <v>29.29920728845819</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.06608873900483</v>
+        <v>39.06608873902609</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.8414120218106795</v>
+        <v>0.8414120218121575</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>20.46225444835009</v>
+        <v>20.46225444836078</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.02917202747117</v>
+        <v>28.029172027537</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-3.158548196111401</v>
+        <v>-3.158548196093211</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>17.4954054473345</v>
+        <v>17.49540544735985</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24.43542208954851</v>
+        <v>24.43542208961706</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5.05562324551941</v>
+        <v>5.055623245598536</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.27847415819052</v>
+        <v>28.27847415823042</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.34876768592526</v>
+        <v>30.348767685987</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23.83689768980171</v>
+        <v>23.83689768981081</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>34.87585270641874</v>
+        <v>34.87585270643955</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>40.28029565235566</v>
+        <v>40.28029565239068</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2.260685448421537</v>
+        <v>2.260685448388909</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.22935487989626</v>
+        <v>26.22935487989558</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.99629360191464</v>
+        <v>35.99629360189111</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3.982810640187932</v>
+        <v>3.982810640172129</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>23.60583946724351</v>
+        <v>23.60583946717712</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.17371583935651</v>
+        <v>31.17371583929956</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-0.01007418884832489</v>
+        <v>-0.01007418882035793</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.64728782911309</v>
+        <v>20.64728782916539</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.58735568382097</v>
+        <v>27.58735568386508</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>8.206297191045774</v>
+        <v>8.206297191061349</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.43132773714704</v>
+        <v>31.43132773719843</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>39.7348928515422</v>
+        <v>39.73489285158938</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>33.22885923021009</v>
+        <v>33.22885923022316</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>44.26871724105477</v>
+        <v>44.26871724101851</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>49.67462007983168</v>
+        <v>49.67462007985044</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>11.64661439416453</v>
+        <v>11.64661439414611</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>35.61894084443166</v>
+        <v>35.61894084442893</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>45.38797083698408</v>
+        <v>45.38797083697749</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.79886063400578</v>
+        <v>41.79886063400885</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.2883662883729</v>
+        <v>35.28836628840325</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>46.32741951624381</v>
+        <v>46.32741951627462</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>51.73176072022839</v>
+        <v>51.73176072023487</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>13.71048142738548</v>
+        <v>13.71048142730647</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>37.68100483257091</v>
+        <v>37.68100483250406</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.44765214774473</v>
+        <v>47.44765214777281</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>15.42938154435408</v>
+        <v>15.42938154433794</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.0538438132305</v>
+        <v>35.05384381323914</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.62150102107306</v>
+        <v>42.6215010210767</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>11.43968575087284</v>
+        <v>11.43968575082623</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.09872351366435</v>
+        <v>32.09872351372336</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.038573559396</v>
+        <v>39.03857355944443</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>19.65703630495578</v>
+        <v>19.65703630494748</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>42.88355518251875</v>
+        <v>42.88355518255729</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>51.18693168430148</v>
+        <v>51.186931684344</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>44.68227378073492</v>
+        <v>44.68227378072469</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>55.72223001058352</v>
+        <v>55.72223001054918</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>61.12803108497268</v>
+        <v>61.12803108502554</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>23.09835633231806</v>
+        <v>23.09835633229964</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>47.07253670799683</v>
+        <v>47.07253670801127</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.84127527530642</v>
+        <v>56.8412752753279</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>44.67013644151051</v>
+        <v>44.67013644152142</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>38.15966253525197</v>
+        <v>38.1596625351966</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>49.1986839466599</v>
+        <v>49.19868394661727</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>54.60323560488392</v>
+        <v>54.60323560483401</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.58101608523894</v>
+        <v>16.58101608516459</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>40.55257896023453</v>
+        <v>40.5525789601429</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.31942809597113</v>
+        <v>50.31942809593566</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>18.29941309562023</v>
+        <v>18.29941309560943</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>37.92451290269149</v>
+        <v>37.92451290267194</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>45.49242381037025</v>
+        <v>45.49242381038265</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>14.31164457631654</v>
+        <v>14.31164457625583</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.97137423455648</v>
+        <v>34.97137423453181</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>41.91155871454872</v>
+        <v>41.91155871451529</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>22.52904720553952</v>
+        <v>22.52904720549234</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>45.75619940949979</v>
+        <v>45.75619940951604</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>54.05982268833087</v>
+        <v>54.05982268831541</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>47.55518523613192</v>
+        <v>47.55518523616534</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>58.59510964904028</v>
+        <v>58.59510964896275</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>64.00112114474904</v>
+        <v>64.00112114480827</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.97050613292991</v>
+        <v>25.970506132934</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>49.94572594523343</v>
+        <v>49.94572594517034</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>59.71466633556223</v>
+        <v>59.71466633553494</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.5809862764538</v>
+        <v>36.58098627650564</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.06875238232088</v>
+        <v>30.06875238235464</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>41.10768475310384</v>
+        <v>41.10768475312101</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>46.51256761509659</v>
+        <v>46.51256761514877</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>8.491231396686185</v>
+        <v>8.49123139662127</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>32.4617518838288</v>
+        <v>32.4617518837856</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>42.22917234337329</v>
+        <v>42.22917234337409</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>10.21300540206526</v>
+        <v>10.21300540210096</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.83716509836595</v>
+        <v>29.83716509840427</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.40559177223996</v>
+        <v>37.40559177229657</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>6.223373647521594</v>
+        <v>6.223373647525914</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.88195855371667</v>
+        <v>26.88195855377033</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.82272762566207</v>
+        <v>33.82272762568458</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>14.43978981027474</v>
+        <v>14.43978981029248</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>37.66595172919027</v>
+        <v>37.66595172917822</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.97005238282689</v>
+        <v>45.97005238280347</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>39.46365490724541</v>
+        <v>39.46365490724303</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50.50349027134574</v>
+        <v>50.50349027139872</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>55.90983297759304</v>
+        <v>55.90983297762885</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>17.88010116383451</v>
+        <v>17.88010116383348</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>41.85427862734342</v>
+        <v>41.85427862738707</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>51.62379037521906</v>
+        <v>51.6237903752551</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-1.064235039299792</v>
+        <v>-1.064235039356181</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>18.54861647974858</v>
+        <v>18.54861647975245</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.11052067658907</v>
+        <v>26.11052067658146</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-5.053189720008636</v>
+        <v>-5.053189719982033</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>15.59462371707137</v>
+        <v>15.59462371706978</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.52802682376032</v>
+        <v>22.52802682373543</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>3.156603591831963</v>
+        <v>3.156603591854132</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.37098471400018</v>
+        <v>26.37098471402451</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.66825032353925</v>
+        <v>34.66825032349116</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.15973108932074</v>
+        <v>28.15973108927811</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>39.19263573753118</v>
+        <v>39.19263573758222</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.59385939035541</v>
+        <v>44.59385939035256</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>6.585527097173763</v>
+        <v>6.585527097187178</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30.54207126572645</v>
+        <v>30.54207126575748</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>40.30641037729264</v>
+        <v>40.30641037734289</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>2.078227076432864</v>
+        <v>2.078227076439457</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>21.69827992912859</v>
+        <v>21.69827992913961</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.26287869591065</v>
+        <v>29.26287869591748</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-1.92230116674445</v>
+        <v>-1.922301166720917</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>18.73105000378255</v>
+        <v>18.73105000382791</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.66844166588792</v>
+        <v>25.6684416659118</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>6.292441639561257</v>
+        <v>6.292441639628901</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.51402954347519</v>
+        <v>29.51402954349645</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>10.37554942561847</v>
+        <v>10.37554942561324</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.98983407644515</v>
+        <v>29.98983407644651</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>37.55151911540712</v>
+        <v>37.55151911543554</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>6.389782751021681</v>
+        <v>6.389782750970635</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>27.03927160927377</v>
+        <v>27.03927160929366</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>33.97245689548355</v>
+        <v>33.97245689550958</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>14.60055474642398</v>
+        <v>14.60055474647377</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>37.8164238677923</v>
+        <v>37.81642386781583</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>46.11350087087952</v>
+        <v>46.11350087088293</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>39.60635733420814</v>
+        <v>39.60635733419291</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>50.63936024967437</v>
+        <v>50.63936024964481</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>56.04048213534803</v>
+        <v>56.04048213533984</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>18.03048095862503</v>
+        <v>18.03048095862958</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>41.98887870464294</v>
+        <v>41.98887870463749</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>51.75292638017537</v>
+        <v>51.75292638016832</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>13.52144537833918</v>
+        <v>13.52144537832133</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>33.1429315096551</v>
+        <v>33.14293150959871</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>40.7073111791144</v>
+        <v>40.70731117913475</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>9.524105608016139</v>
+        <v>9.524105607951793</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>30.17913233692535</v>
+        <v>30.17913233686248</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>37.1163062523916</v>
+        <v>37.11630625236181</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>17.73982737486208</v>
+        <v>17.73982737490165</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>40.96290343372844</v>
+        <v>40.96290343379199</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>13.24236857856895</v>
+        <v>13.24236857860249</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>32.8572906653428</v>
+        <v>32.85729066532723</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>40.4192293270854</v>
+        <v>40.41922932711212</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>9.258528765628608</v>
+        <v>9.258528765604847</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.90870942219452</v>
+        <v>29.9087094222027</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.84222903459725</v>
+        <v>36.84222903461965</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>17.46935266193814</v>
+        <v>17.4693526619353</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>40.68585500112248</v>
+        <v>40.68585500113294</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>48.98317871301025</v>
+        <v>48.98317871301354</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>42.47605591111754</v>
+        <v>42.47605591111174</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>53.50902709561954</v>
+        <v>53.50902709563319</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>58.91035933177237</v>
+        <v>58.91035933178806</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>20.89941792541945</v>
+        <v>20.8994179254572</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>44.85885500560299</v>
+        <v>44.85885500561629</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>54.62310439680992</v>
+        <v>54.62310439679821</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>16.38930266269959</v>
+        <v>16.38930266268867</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>36.01142623306849</v>
+        <v>36.01142623311601</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>43.57605959701446</v>
+        <v>43.57605959706767</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>12.39388990782468</v>
+        <v>12.39388990780104</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.04960843765069</v>
+        <v>33.04960843768718</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>39.98711676356594</v>
+        <v>39.98711676357139</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>20.60966364796841</v>
+        <v>20.60966364796819</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>43.83337293162093</v>
+        <v>43.83337293160695</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>5.160325647872792</v>
+        <v>5.160325647914174</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>24.77430782302063</v>
+        <v>24.77430782307998</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>32.33676214257854</v>
+        <v>32.33676214263629</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1.174623411565431</v>
+        <v>1.174623411579187</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>21.82365953035285</v>
+        <v>21.82365953039844</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.75776361862891</v>
+        <v>28.75776361866404</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>9.384461202987705</v>
+        <v>9.384461203014308</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>32.59997347455349</v>
+        <v>32.5999734745818</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.89777445982689</v>
+        <v>40.89777445982644</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.38889195995624</v>
+        <v>34.38889195996522</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>45.42177408504106</v>
+        <v>45.42177408510302</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>50.82343744712328</v>
+        <v>50.82343744714477</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>12.81337915817549</v>
+        <v>12.81337915818208</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.77177411434523</v>
+        <v>36.77177411435035</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>46.53659475009964</v>
+        <v>46.536594750106</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>8.304391820311576</v>
+        <v>8.304391820294523</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>27.92557536104423</v>
+        <v>27.92557536107982</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>35.49072439009818</v>
+        <v>35.49072439008749</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4.307116201989839</v>
+        <v>4.3071162019538</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>24.96169008455</v>
+        <v>24.96169008455511</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.89978289244503</v>
+        <v>31.89978289242786</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>12.52190361060455</v>
+        <v>12.5219036106174</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>35.74462270128843</v>
+        <v>35.74462270134221</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>37.8141739379589</v>
+        <v>37.8141739379697</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>31.30385065093683</v>
+        <v>31.30385065090011</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>42.34196416019641</v>
+        <v>42.34196416020755</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>47.74520435874989</v>
+        <v>47.74520435872022</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>9.727594643431171</v>
+        <v>9.727594643448338</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>33.69637281507549</v>
+        <v>33.69637281514655</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>43.46125038462752</v>
+        <v>43.46125038475269</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>11.44573015172157</v>
+        <v>11.44573015172055</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>31.06909971112814</v>
+        <v>31.06909971117419</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>38.63520751341365</v>
+        <v>38.6352075134415</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>7.455529136312162</v>
+        <v>7.455529136334558</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.11351089817218</v>
+        <v>28.11351089819469</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>35.05165494515948</v>
+        <v>35.05165494519348</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.67251616978625</v>
+        <v>15.67251616978931</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>38.89741449699441</v>
+        <v>38.89741449699714</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>47.19914738112981</v>
+        <v>47.19914738113901</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>40.69465957327735</v>
+        <v>40.69465957322471</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>51.73367602225527</v>
+        <v>51.73367602223128</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>57.13837600201133</v>
+        <v>57.13837600201201</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>19.11237194580813</v>
+        <v>19.11237194578574</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>43.08480666685954</v>
+        <v>43.08480666689262</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>52.85177522095499</v>
+        <v>52.85177522100808</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>49.26285928684966</v>
+        <v>49.26285928693424</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.75391152239773</v>
+        <v>42.75391152243877</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>53.79212322911984</v>
+        <v>53.79212322915383</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>59.1952616842169</v>
+        <v>59.19526168426852</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>21.17598306715454</v>
+        <v>21.1759830671683</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>45.14661502154989</v>
+        <v>45.14661502154216</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>54.91120119157334</v>
+        <v>54.91120119162029</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>22.89089372591682</v>
+        <v>22.89089372592035</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>18.90388141243873</v>
+        <v>18.90388141244146</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>39.56353874006696</v>
+        <v>39.56353874006969</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.50146496777937</v>
+        <v>46.5014649678162</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>27.12184750168226</v>
+        <v>27.12184750171853</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>50.34823399030505</v>
+        <v>50.34823399033597</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>58.64977825992536</v>
+        <v>58.64977825995253</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>52.14666604150453</v>
+        <v>52.1466660415159</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>63.18578069570025</v>
+        <v>63.18578069572253</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>68.59037890975979</v>
+        <v>68.59037890978617</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>30.56270597358182</v>
+        <v>30.56270597359638</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>54.53699442929347</v>
+        <v>54.53699442931803</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>64.30367156534372</v>
+        <v>64.30367156534577</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>52.13357556446793</v>
+        <v>52.1335755645225</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>45.62464827516213</v>
+        <v>45.62464827520681</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>56.66282817146133</v>
+        <v>56.66282817148134</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>62.06617704710128</v>
+        <v>62.06617704713311</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>24.04595831749087</v>
+        <v>24.04595831759796</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>48.01762961642258</v>
+        <v>48.01762961645555</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>57.78241757179954</v>
+        <v>57.78241757184843</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.76036589888984</v>
+        <v>25.76036589892361</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>45.3858061885155</v>
+        <v>45.38580618851596</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>52.95194849265305</v>
+        <v>52.95194849269318</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.77528064972294</v>
+        <v>21.77528064973761</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>42.43562977700638</v>
+        <v>42.43562977697819</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>49.37389039431751</v>
+        <v>49.37389039434423</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.99329878560762</v>
+        <v>29.99329878559386</v>
       </c>
     </row>
     <row r="329">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>61.5221095233794</v>
+        <v>61.5221095234002</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>55.01901779261753</v>
+        <v>55.01901779264675</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>66.05810063577927</v>
+        <v>66.05810063588852</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>71.46290923741695</v>
+        <v>71.46290923748073</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>33.43429615633089</v>
+        <v>33.43429615631111</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>57.40962392349819</v>
+        <v>57.40962392348727</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>67.17650284753289</v>
+        <v>67.17650284757563</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>44.04530260970886</v>
+        <v>44.04530260971488</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>37.5346155358046</v>
+        <v>37.53461553585792</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>48.57270641038041</v>
+        <v>48.57270641035687</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>53.97638645528455</v>
+        <v>53.97638645535288</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>15.95705092552269</v>
+        <v>15.95705092552394</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.92767994130644</v>
+        <v>39.9276799413385</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>49.69303916782427</v>
+        <v>49.69303916778937</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>17.67483525047281</v>
+        <v>17.67483525049043</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.29933553109684</v>
+        <v>37.29933553112822</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>44.86599356068812</v>
+        <v>44.86599356072507</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>13.68788696461136</v>
+        <v>13.68788696466775</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.34709145704356</v>
+        <v>34.34709145712269</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.28593662763681</v>
+        <v>41.28593662770912</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>21.90491874176812</v>
+        <v>21.90491874177802</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>45.13094829029647</v>
+        <v>45.13094829037514</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>53.43321664119206</v>
+        <v>53.43321664125538</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>46.92836509032325</v>
+        <v>46.92836509034872</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>57.96735890355249</v>
+        <v>57.96735890358933</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>63.37249868108277</v>
+        <v>63.37249868112836</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.34476869663568</v>
+        <v>25.34476869664386</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.31905421954933</v>
+        <v>49.3190542195989</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>59.08650444822113</v>
+        <v>59.08650444823068</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-0.3829915858872432</v>
+        <v>-0.3829915859186208</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>19.23129583018452</v>
+        <v>19.2312958301719</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>26.79317229558022</v>
+        <v>26.79317229564945</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-4.372710026778595</v>
+        <v>-4.372710026794056</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.27656087451519</v>
+        <v>16.27656087449655</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.20991552297674</v>
+        <v>23.20991552300846</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3.837940546337659</v>
+        <v>3.837940546387113</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.05393676020013</v>
+        <v>27.05393676021468</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>35.35123398221548</v>
+        <v>35.35123398226038</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.84243309380313</v>
+        <v>28.8424330938286</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>39.87588150622581</v>
+        <v>39.87588150631164</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>45.27733195903953</v>
+        <v>45.27733195904976</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>7.266384536903939</v>
+        <v>7.266384536937476</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.22488005574358</v>
+        <v>31.22488005579815</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>40.98929155280199</v>
+        <v>40.98929155288305</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>2.756259229409903</v>
+        <v>2.756259229386028</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>22.37774825077245</v>
+        <v>22.37774825077825</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.94231952538199</v>
+        <v>29.94231952531468</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-1.245033702161226</v>
+        <v>-1.245033702262408</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>19.40977511034542</v>
+        <v>19.40977511033598</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.34711865644827</v>
+        <v>26.34711865645805</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.970566565699283</v>
+        <v>6.970566565723043</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30.19376983460209</v>
+        <v>30.19376983462289</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>11.05738827764217</v>
+        <v>11.05738827762182</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>30.67310891170926</v>
+        <v>30.67310891172938</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.23476620356074</v>
+        <v>38.23476620356449</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>7.070858045431788</v>
+        <v>7.07085804546146</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>27.72180447179151</v>
+        <v>27.72180447174103</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.65494128053773</v>
+        <v>34.65494128049214</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>15.28248735715463</v>
+        <v>15.28248735723831</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>38.49997165809235</v>
+        <v>38.4999716581185</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>46.7970802599334</v>
+        <v>46.79708025999479</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>40.28965515862147</v>
+        <v>40.28965515860828</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>51.3232018439122</v>
+        <v>51.32320184389322</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>56.72455052294548</v>
+        <v>56.72455052291296</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>18.71193410618308</v>
+        <v>18.71193410619263</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.67228332462024</v>
+        <v>42.67228332461558</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>52.43640337102271</v>
+        <v>52.43640337100452</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>14.20007315794883</v>
+        <v>14.20007315791518</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>33.82299554418726</v>
+        <v>33.8229955442058</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>41.38734770592565</v>
+        <v>41.38734770590246</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>10.20196890193629</v>
+        <v>10.2019689019538</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.85845337675947</v>
+        <v>30.85845337678766</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>37.79557915719634</v>
+        <v>37.79557915719998</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>18.41854818491059</v>
+        <v>18.41854818491855</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>41.64323969696498</v>
+        <v>41.64323969693133</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>13.92429818028868</v>
+        <v>13.92429818027879</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>33.54065628322131</v>
+        <v>33.54065628324496</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>41.10256722141786</v>
+        <v>41.10256722137932</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>9.939694943937962</v>
+        <v>9.939694943977184</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.59133320517331</v>
+        <v>30.59133320521617</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>37.52480437034261</v>
+        <v>37.52480437039411</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>18.15137614730427</v>
+        <v>18.15137614738635</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>41.36949369831574</v>
+        <v>41.36949369834859</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>49.66684903211716</v>
+        <v>49.66684903213466</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>43.15944467420444</v>
+        <v>43.15944467420591</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>54.1929596306047</v>
+        <v>54.19295963061016</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>59.59451867199878</v>
+        <v>59.59451867204631</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.5809619705668</v>
+        <v>21.58096197055418</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>45.54235058499897</v>
+        <v>45.5423505849801</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>55.30667236367218</v>
+        <v>55.30667236371788</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.06802126091632</v>
+        <v>17.0680212608439</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.69158111954037</v>
+        <v>36.69158111950172</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>44.25618699913797</v>
+        <v>44.25618699909079</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>13.07184415495326</v>
+        <v>13.0718441549328</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.72902046725061</v>
+        <v>33.72902046723696</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>40.66648068813411</v>
+        <v>40.66648068812525</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>21.28847540214916</v>
+        <v>21.28847540212835</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>44.51380017088262</v>
+        <v>44.51380017092264</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>5.841825379761627</v>
+        <v>5.841825379641346</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.4572435121173</v>
+        <v>25.4572435120874</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.01967014717785</v>
+        <v>33.01967014709258</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>1.855359612051398</v>
+        <v>1.855359612077887</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.5058532610693</v>
+        <v>22.50585326110386</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.43990895067371</v>
+        <v>29.43990895070815</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.06605464722666</v>
+        <v>10.06605464727327</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>33.28318206911023</v>
+        <v>33.28318206914365</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>41.58101471292058</v>
+        <v>41.5810147129872</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>35.07185054913542</v>
+        <v>35.07185054911712</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>46.10527644488069</v>
+        <v>46.10527644486272</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>51.50716663122317</v>
+        <v>51.50716663124068</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>13.49449311123349</v>
+        <v>13.49449311124054</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>37.45483953125118</v>
+        <v>37.4548395312729</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>47.21973258667218</v>
+        <v>47.21973258668127</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>8.982680329353439</v>
+        <v>8.982680329306373</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.60530009924683</v>
+        <v>28.60530009930094</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>36.17042168285535</v>
+        <v>36.17042168286854</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>4.984640251806791</v>
+        <v>4.984640251882961</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.64067184258566</v>
+        <v>25.64067184262477</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.57871659401358</v>
+        <v>32.57871659402859</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>13.20028510418636</v>
+        <v>13.20028510418534</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>36.42461961835453</v>
+        <v>36.42461961834634</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>38.49394607715611</v>
+        <v>38.49394607715395</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>31.98334112538815</v>
+        <v>31.98334112534449</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>43.02199859526227</v>
+        <v>43.02199859526591</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>48.42546577404038</v>
+        <v>48.42546577402082</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>10.40524054499506</v>
+        <v>10.40524054498233</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.37597053566638</v>
+        <v>34.37597053561727</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>44.14092078379882</v>
+        <v>44.14092078377904</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>12.12447267891069</v>
+        <v>12.12447267893445</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.74927858845102</v>
+        <v>31.74927858845272</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>39.31535893452313</v>
+        <v>39.31535893452347</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>8.133507610459656</v>
+        <v>8.133507610414977</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.79294726329463</v>
+        <v>28.79294726327894</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.73104319177536</v>
+        <v>35.7310431917691</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>16.3513522870255</v>
+        <v>16.35135228695092</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>39.57786615677206</v>
+        <v>39.57786615671385</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>47.87963092953281</v>
+        <v>47.87963092952349</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>41.37486181797134</v>
+        <v>41.37486181798589</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>52.41442226902676</v>
+        <v>52.41442226903631</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>57.81934929163241</v>
+        <v>57.81934929164559</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>19.79072937251452</v>
+        <v>19.79072937246597</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>43.7651161085946</v>
+        <v>43.76511610854435</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>53.53215733878174</v>
+        <v>53.53215733872626</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>49.94322738449431</v>
+        <v>49.94322738445838</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>43.43399804438512</v>
+        <v>43.43399804439547</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>54.47275371764009</v>
+        <v>54.47275371763941</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>59.87611914615682</v>
+        <v>59.87611914616888</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>21.85422490384222</v>
+        <v>21.85422490384836</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>45.82680879975963</v>
+        <v>45.8268087997735</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>55.5914676338591</v>
+        <v>55.59146763385853</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>23.57023194125496</v>
+        <v>23.57023194126814</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>43.19647121880892</v>
+        <v>43.19647121890408</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>50.76233238537155</v>
+        <v>50.76233238542953</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>19.58245577797741</v>
+        <v>19.58245577796934</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.24357110017989</v>
+        <v>40.24357110020661</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>47.1814491904447</v>
+        <v>47.18144919046664</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>27.80127956500744</v>
+        <v>27.80127956501449</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>51.02928168401046</v>
+        <v>51.0292816840241</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>59.33085782853355</v>
+        <v>59.33085782856345</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>52.82746439550429</v>
+        <v>52.8274643954794</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>63.8671230576691</v>
+        <v>63.86712305769207</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>69.27194830768904</v>
+        <v>69.27194830772281</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>31.24165939741236</v>
+        <v>31.24165939737166</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>55.21789999050053</v>
+        <v>55.21789999055078</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>64.98464978805031</v>
+        <v>64.98464978809123</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>52.81403466146695</v>
+        <v>52.81403466149094</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>46.30482580531724</v>
+        <v>46.30482580533611</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>57.34354967017019</v>
+        <v>57.34354967018815</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>62.74712553133007</v>
+        <v>62.74712553135429</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.72429112111443</v>
+        <v>24.7242911210378</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>48.69791442334279</v>
+        <v>48.69791442339964</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>58.46277505959971</v>
+        <v>58.46277505957947</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.439795024448</v>
+        <v>26.43979502435125</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>46.06667178359736</v>
+        <v>46.06667178359986</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>53.63278663936829</v>
+        <v>53.63278663941263</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.45394606025102</v>
+        <v>22.45394606025966</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>43.1157532184519</v>
+        <v>43.11575321848998</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>50.05396572837832</v>
+        <v>50.05396572840469</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.67282188473812</v>
+        <v>30.67282188473437</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>53.90145727126331</v>
+        <v>53.90145727129901</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>62.20328018282486</v>
+        <v>62.20328018284327</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>55.69990724630246</v>
+        <v>55.69990724630905</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>66.73953409950023</v>
+        <v>66.7395340994825</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>72.14456974916014</v>
+        <v>72.14456974913558</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>34.11334063865955</v>
+        <v>34.11334063866171</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>58.09062060509085</v>
+        <v>58.0906206051079</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>67.85757220723075</v>
+        <v>67.85757220719414</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>44.72533142099063</v>
+        <v>44.72533142100711</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>38.21436267267426</v>
+        <v>38.21436267270859</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>49.2529975142529</v>
+        <v>49.25299751428007</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>54.65690456366018</v>
+        <v>54.65690456370872</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>16.63495341751785</v>
+        <v>16.6349534175382</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.6075343662793</v>
+        <v>40.60753436630658</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>50.37296630555464</v>
+        <v>50.37296630560955</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>18.35383431679905</v>
+        <v>18.35383431675335</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.9797710077754</v>
+        <v>37.97977100779893</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>45.54640162796521</v>
+        <v>45.54640162799272</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>14.36612220739071</v>
+        <v>14.36612220742698</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.02678465673704</v>
+        <v>35.0267846567434</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>41.96558176843028</v>
+        <v>41.96558176843676</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>22.58401160966546</v>
+        <v>22.58401160966626</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>45.8116567589551</v>
+        <v>45.81165675900785</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>54.11395704459072</v>
+        <v>54.11395704463813</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>47.60882418015829</v>
+        <v>47.6088241802032</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>58.64836200229932</v>
+        <v>58.64836200233979</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>64.05372884684878</v>
+        <v>64.0537288468315</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.0233828972059</v>
+        <v>26.02338289724979</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>49.99962054901697</v>
+        <v>49.999620549033</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>59.76714348791789</v>
+        <v>59.76714348795507</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-9.077614984767497</v>
+        <v>-9.077614984776705</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>10.53586587054881</v>
+        <v>10.53586587059224</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>18.09790046027852</v>
+        <v>18.097900460285</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-13.06796701724194</v>
+        <v>-13.06796701724422</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>7.580450157372621</v>
+        <v>7.580450157397063</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>14.513903951149</v>
+        <v>14.51390395114661</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-4.857921501738264</v>
+        <v>-4.857921501738037</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.35730182116877</v>
+        <v>18.357301821115</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.65474584927561</v>
+        <v>26.65474584926742</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>20.14631409925276</v>
+        <v>20.14631409929175</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.17943937781284</v>
+        <v>31.17943937780568</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.58087372999078</v>
+        <v>36.58087373002751</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1.428782096759409</v>
+        <v>-1.428782096759864</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.52897257541199</v>
+        <v>22.52897257540438</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>32.29363410967697</v>
+        <v>32.2936341096681</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-5.937452327921978</v>
+        <v>-5.937452327893784</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>13.6832304112447</v>
+        <v>13.68323041121765</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.24795986668367</v>
+        <v>21.24795986668935</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-9.939378783364322</v>
+        <v>-9.939378783405136</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>10.71457653020262</v>
+        <v>10.7145765302158</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>17.6520193195755</v>
+        <v>17.65201931960494</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1.72438347325512</v>
+        <v>-1.724383473275129</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.49804719530821</v>
+        <v>21.49804719531754</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>2.362732390834804</v>
+        <v>2.3627323908356</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>21.97764646282927</v>
+        <v>21.97764646280744</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.53946188584574</v>
+        <v>29.53946188584312</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1.624431415165777</v>
+        <v>-1.624431415150884</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.02566128392901</v>
+        <v>19.02566128398631</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.9588972459761</v>
+        <v>25.9588972460492</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>6.586592845302885</v>
+        <v>6.586592845323576</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.80330425555904</v>
+        <v>29.80330425552811</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>38.10055966987055</v>
+        <v>38.10055966984827</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>31.59350373050811</v>
+        <v>31.59350373054563</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>42.62672727875018</v>
+        <v>42.62672727873029</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>48.02805985906012</v>
+        <v>48.0280598591015</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>10.01673503669529</v>
+        <v>10.01673503665857</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>33.97634341688989</v>
+        <v>33.97634341687534</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>43.74071350364191</v>
+        <v>43.74071350364521</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>5.506329188944601</v>
+        <v>5.506329188957448</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.12844529194818</v>
+        <v>25.12844529198331</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.69295564142929</v>
+        <v>32.69295564147284</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>1.507591426928098</v>
+        <v>1.507591426951972</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>22.16322240213422</v>
+        <v>22.16322240214854</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.10044743390095</v>
+        <v>29.10044743390868</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>9.723565758725936</v>
+        <v>9.723565758674322</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>32.94748467062696</v>
+        <v>32.94748467058695</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>5.229601599710332</v>
+        <v>5.229601599663379</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>24.84515314725955</v>
+        <v>24.8451531472334</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>32.40722222469957</v>
+        <v>32.40722222466921</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>1.244364804613252</v>
+        <v>1.244364804627917</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.89514934491408</v>
+        <v>21.89514934488475</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.82871967290974</v>
+        <v>28.8287196729335</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>9.455440961057644</v>
+        <v>9.455440961054915</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.67278562817852</v>
+        <v>32.67278562815305</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>40.97028778230025</v>
+        <v>40.97028778233594</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.46325258348985</v>
+        <v>34.46325258345335</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>45.49644440452765</v>
+        <v>45.49644440456176</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>50.89798735240446</v>
+        <v>50.89798735241173</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>12.8857222296201</v>
+        <v>12.88572222956541</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.84637002077874</v>
+        <v>36.84637002075509</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>46.61094184723537</v>
+        <v>46.6109418472473</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>8.374236626577368</v>
+        <v>8.374236626584416</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.9969902084898</v>
+        <v>27.99699020850106</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>35.56175428408709</v>
+        <v>35.56175428412415</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>4.377426029393956</v>
+        <v>4.377426029348253</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.03374884836454</v>
+        <v>25.03374884842559</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.9713083304109</v>
+        <v>31.9713083303486</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>12.59345232983376</v>
+        <v>12.59345232981023</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>35.81800450544402</v>
+        <v>35.81800450547961</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-2.852888817280718</v>
+        <v>-2.852888817284811</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>16.76172276419889</v>
+        <v>16.76172276423732</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.32430753670222</v>
+        <v>24.32430753676577</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-6.839988149171877</v>
+        <v>-6.839988149204164</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>13.80965178238328</v>
+        <v>13.80965178237339</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.74380663275279</v>
+        <v>20.74380663278155</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1.37010183332664</v>
+        <v>1.370101833352333</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>24.58645637493872</v>
+        <v>24.58645637499317</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>32.88443583767149</v>
+        <v>32.88443583771651</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>26.37564080514163</v>
+        <v>26.37564080514015</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>37.4087435696059</v>
+        <v>37.4087435696183</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.8106176637019</v>
+        <v>42.810617663667</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>4.799235715603782</v>
+        <v>4.799235715602986</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.75884131315216</v>
+        <v>28.7588413131525</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.52398441860349</v>
+        <v>38.52398441865726</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>0.288878034819259</v>
+        <v>0.2888780348681443</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>19.91069153264082</v>
+        <v>19.9106915326531</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.4759713104837</v>
+        <v>27.47597131053349</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-3.709795538882435</v>
+        <v>-3.709795538883345</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>16.94538256201075</v>
+        <v>16.94538256203849</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>23.88352657239339</v>
+        <v>23.88352657242988</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>4.50524436097383</v>
+        <v>4.505244360954958</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.72880628549931</v>
+        <v>27.72880628556048</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.79837030058694</v>
+        <v>29.79837030051088</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.28813426669295</v>
+        <v>23.2881342667133</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.3264686541031</v>
+        <v>34.32646865413152</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>39.72991975444926</v>
+        <v>39.72991975446051</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>1.710985755651887</v>
+        <v>1.710985755637562</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.68097524238656</v>
+        <v>25.68097524235951</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>35.44617550213239</v>
+        <v>35.44617550216013</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>3.433022992536831</v>
+        <v>3.433022992566048</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>23.05702267504919</v>
+        <v>23.05702267510842</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>30.62326114910512</v>
+        <v>30.62326114915639</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-0.5585755855509156</v>
+        <v>-0.5585755855318162</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>20.10001068030816</v>
+        <v>20.10001068030759</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>27.03820578328678</v>
+        <v>27.03820578325563</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>7.658664324302304</v>
+        <v>7.658664324324359</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.88440565021447</v>
+        <v>30.88440565023823</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.18631722534666</v>
+        <v>39.18631722537758</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>32.68191710523932</v>
+        <v>32.68191710527707</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>43.72115444057668</v>
+        <v>43.72115444063603</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>49.12606539457828</v>
+        <v>49.12606539461034</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>11.09873656204409</v>
+        <v>11.09873656201601</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>35.07238281880608</v>
+        <v>35.07238281878095</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>44.83967403567486</v>
+        <v>44.83967403563382</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>41.24761922714923</v>
+        <v>41.24761922718038</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.73875882899993</v>
+        <v>34.73875882901187</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>45.7771914164142</v>
+        <v>45.77719141645842</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>51.18054076837767</v>
+        <v>51.18054076838676</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>13.15993775595528</v>
+        <v>13.15993775590435</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>37.13178115597542</v>
+        <v>37.1317811559869</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>46.8966900048308</v>
+        <v>46.89669000485422</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>14.87874991738748</v>
+        <v>14.87874991736315</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>34.50418296685301</v>
+        <v>34.50418296685017</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>42.07020226842086</v>
+        <v>42.07020226844291</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>10.89034026187026</v>
+        <v>10.89034026188436</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.55060219672201</v>
+        <v>31.55060219674997</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>38.48857946942893</v>
+        <v>38.48857946944803</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>19.10855928845193</v>
+        <v>19.10855928843283</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>42.33578886424594</v>
+        <v>42.33578886425504</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>50.63751181740962</v>
+        <v>50.63751181738415</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>44.13448739995361</v>
+        <v>44.13448739998488</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>55.17382294312493</v>
+        <v>55.17382294310856</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>60.57863212637447</v>
+        <v>60.57863212642347</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>22.54963430226847</v>
+        <v>22.54963430227097</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>46.5251344240795</v>
+        <v>46.52513442403016</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>56.29213421147061</v>
+        <v>56.2921342114132</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>44.11838587272767</v>
+        <v>44.11838587279941</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>37.60954595523229</v>
+        <v>37.60954595523422</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>48.64794673628022</v>
+        <v>48.64794673635207</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>54.05150652593362</v>
+        <v>54.05150652594544</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>16.02996332979351</v>
+        <v>16.02996332976839</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>40.00284615115582</v>
+        <v>40.00284615118083</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>49.7679568094819</v>
+        <v>49.76795680951999</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>17.7482723666727</v>
+        <v>17.74827236663894</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.37434290455745</v>
+        <v>37.37434290454017</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>44.94061590349212</v>
+        <v>44.94061590346131</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>13.7617899250299</v>
+        <v>13.76178992503217</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.42274370229107</v>
+        <v>34.42274370231165</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.3610554044278</v>
+        <v>41.36105540445872</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>21.98006099370648</v>
+        <v>21.98006099370239</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>45.20792384396019</v>
+        <v>45.20792384394211</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>53.50989357196714</v>
+        <v>53.50989357197976</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>47.00688964763377</v>
+        <v>47.00688964764684</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>58.04619338392455</v>
+        <v>58.04619338393853</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.45121297208446</v>
+        <v>63.45121297209731</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>25.42127493186079</v>
+        <v>25.42127493179258</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>49.39781444191975</v>
+        <v>49.39781444193191</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>59.16501604124606</v>
+        <v>59.16501604124481</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.02966496358361</v>
+        <v>36.02966496358748</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.51906512616345</v>
+        <v>29.51906512615993</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>40.55737688800751</v>
+        <v>40.55737688801672</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>45.9612678672954</v>
+        <v>45.96126786731917</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>7.940607928025866</v>
+        <v>7.940607928048035</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>31.91244839670763</v>
+        <v>31.91244839673605</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>41.67813036051346</v>
+        <v>41.67813036049425</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>9.662293951655084</v>
+        <v>9.662293951683392</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.28742442577173</v>
+        <v>29.28742442578639</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.8542131872682</v>
+        <v>36.85421318726536</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>5.673948359499587</v>
+        <v>5.673948359516753</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.33375743129987</v>
+        <v>26.3337574313126</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>33.27265373304122</v>
+        <v>33.27265373307544</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>13.89123300050981</v>
+        <v>13.8912330005139</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>37.11810561709568</v>
+        <v>37.11810561711091</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>45.42055271782213</v>
+        <v>45.42055271787466</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>38.91578883787689</v>
+        <v>38.91578883788962</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>49.95500354672923</v>
+        <v>49.95500354673196</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>55.36035433125777</v>
+        <v>55.36035433124162</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>17.33129944464438</v>
+        <v>17.33129944468986</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>41.30679664115495</v>
+        <v>41.30679664116131</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>51.07456957961948</v>
+        <v>51.07456957963039</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>0.5061198599572485</v>
+        <v>0.5061198599466756</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>20.12130832590445</v>
+        <v>20.12130832586443</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>27.68535533280361</v>
+        <v>27.6853553328185</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-3.484356158346277</v>
+        <v>-3.484356158311261</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>17.16574162184393</v>
+        <v>17.16574162182142</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>24.10134969489239</v>
+        <v>24.10134969484373</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>4.72611764701308</v>
+        <v>4.726117646966696</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.94344613766053</v>
+        <v>27.94344613769236</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>36.24294243651842</v>
+        <v>36.24294243649136</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.73240018874831</v>
+        <v>29.73240018878753</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>40.76714786566605</v>
+        <v>40.76714786568913</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>46.16972772550444</v>
+        <v>46.16972772554185</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>8.155632417889802</v>
+        <v>8.155632417885709</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>32.11527543309761</v>
+        <v>32.11527543310466</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.88203839672109</v>
+        <v>41.88203839667834</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>3.654370147385389</v>
+        <v>3.654370147391415</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>23.27676135582099</v>
+        <v>23.27676135582486</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>30.84350363098336</v>
+        <v>30.84350363098529</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-0.3476806488612461</v>
+        <v>-0.3476806488545385</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>20.30795604081446</v>
+        <v>20.30795604081991</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>27.24755360303196</v>
+        <v>27.24755360301888</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>7.867743352800499</v>
+        <v>7.867743352811299</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>31.09228002556425</v>
+        <v>31.09228002554492</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>11.94800041333529</v>
+        <v>11.94800041331255</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>31.56462224549487</v>
+        <v>31.5646222454968</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>39.12845007613906</v>
+        <v>39.12845007614293</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>7.960712888599215</v>
+        <v>7.96071288860615</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.61248635714763</v>
+        <v>28.61248635716445</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>35.54787660022326</v>
+        <v>35.5478766002352</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>16.17216554515629</v>
+        <v>16.17216554516686</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>39.39098228070269</v>
+        <v>39.39098228073361</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>47.69028995864618</v>
+        <v>47.69028995860263</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.18112358432732</v>
+        <v>41.18112358434938</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>52.21596954927166</v>
+        <v>52.21596954928815</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>57.61844763285261</v>
+        <v>57.61844763285033</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>19.60268317527571</v>
+        <v>19.60268317529208</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.56418005398346</v>
+        <v>43.56418005397164</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>53.33065155380017</v>
+        <v>53.33065155378834</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>15.09968507328902</v>
+        <v>15.09968507328459</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>34.72350979492681</v>
+        <v>34.72350979495057</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.29003295446294</v>
+        <v>42.29003295441485</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>11.10082323785171</v>
+        <v>11.10082323788854</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.75813575290304</v>
+        <v>31.75813575297034</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>38.69751555922765</v>
+        <v>38.69751555923152</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>19.31722636751543</v>
+        <v>19.31722636755579</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>42.54325144091113</v>
+        <v>42.54325144092591</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>14.81546978478455</v>
+        <v>14.81546978479114</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>34.43272916453348</v>
+        <v>34.4327291645519</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>41.99681065624064</v>
+        <v>41.99681065624814</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>10.83010941669918</v>
+        <v>10.83010941670305</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.48257480504104</v>
+        <v>31.48257480504968</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>38.41829942519631</v>
+        <v>38.41829942517153</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>19.04161399923815</v>
+        <v>19.04161399926816</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>42.261064064911</v>
+        <v>42.26106406493987</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>50.56061848890953</v>
+        <v>50.5606184889832</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>44.0514728225621</v>
+        <v>44.05147282268534</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>55.08628705065563</v>
+        <v>55.08628705071804</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>60.48897552319134</v>
+        <v>60.48897552319862</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>22.47227068744949</v>
+        <v>22.47227068746575</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>46.43480706687261</v>
+        <v>46.4348070668817</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>56.20148031832296</v>
+        <v>56.20148031832694</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>17.96819269332228</v>
+        <v>17.96819269332148</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>37.59265496585134</v>
+        <v>37.59265496585532</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>45.15943185813272</v>
+        <v>45.15943185810669</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>13.97125816864068</v>
+        <v>13.97125816866115</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.62926260601283</v>
+        <v>34.62926260602045</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.56897687350657</v>
+        <v>41.56897687351157</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>22.18771329656759</v>
+        <v>22.18771329655179</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>45.4143717067834</v>
+        <v>45.41437170680261</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>6.731970081417654</v>
+        <v>6.731970081392301</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>26.34828939620079</v>
+        <v>26.34828939621273</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>33.91288661291092</v>
+        <v>33.91288661290217</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>2.744746998567035</v>
+        <v>2.744746998528722</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>23.39606766881819</v>
+        <v>23.3960676688233</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.3323768333273</v>
+        <v>30.33237683334151</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>10.95526531735275</v>
+        <v>10.95526531739584</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.17372515238456</v>
+        <v>34.1737251524065</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>42.47375691164142</v>
+        <v>42.47375691160924</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>35.96285128831606</v>
+        <v>35.96285128838882</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>46.99757643496535</v>
+        <v>46.99757643501663</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.4005960856242</v>
+        <v>52.40059608568809</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>14.38477451202185</v>
+        <v>14.38477451206027</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.34626860652178</v>
+        <v>38.34626860653235</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>48.11351318166645</v>
+        <v>48.11351318168873</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>9.88182463231372</v>
+        <v>9.881824632293142</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.50534672162335</v>
+        <v>29.50534672158799</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>37.07263934605179</v>
+        <v>37.07263934600643</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>5.883026952379833</v>
+        <v>5.883026952418145</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>26.53988656229533</v>
+        <v>26.53988656232455</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.48018538027007</v>
+        <v>33.48018538030679</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>14.09849558987331</v>
+        <v>14.09849558988706</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>37.32416364411345</v>
+        <v>37.32416364416564</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>39.39465583940886</v>
+        <v>39.39465583943398</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>32.88230868382219</v>
+        <v>32.88230868385288</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>43.92226629076275</v>
+        <v>43.92226629081652</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>49.32686313058365</v>
+        <v>49.32686313063094</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>11.30348832079379</v>
+        <v>11.30348832078674</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>35.27536765546994</v>
+        <v>35.27536765549256</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>45.04266937133796</v>
+        <v>45.04266937136525</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.02230522532714</v>
+        <v>13.02230522528542</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>32.64801370407564</v>
+        <v>32.64801370408178</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>40.21626522643861</v>
+        <v>40.21626522637983</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>9.030583273194434</v>
+        <v>9.03058327320603</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.69085130521328</v>
+        <v>29.69085130529536</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.6312013828808</v>
+        <v>36.63120138296425</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>17.24825181398419</v>
+        <v>17.24825181400102</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>40.47609948585271</v>
+        <v>40.47609948584362</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>48.78006400747982</v>
+        <v>48.78006400745436</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>42.27355343725161</v>
+        <v>42.27355343726786</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>53.31441408517433</v>
+        <v>53.31441408519218</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>58.72047089222325</v>
+        <v>58.72047089226974</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>20.68870032434561</v>
+        <v>20.68870032434937</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.6642367699486</v>
+        <v>44.66423676995736</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>54.43362987864985</v>
+        <v>54.43362987866395</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>50.84543869909247</v>
+        <v>50.84543869912032</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>44.33446724139604</v>
+        <v>44.33446724145254</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>55.37452306718613</v>
+        <v>55.37452306719989</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>60.77901815421818</v>
+        <v>60.77901815422602</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>22.75397417613884</v>
+        <v>22.75397417617169</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>46.72770757973079</v>
+        <v>46.72770757974807</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.49471786823106</v>
+        <v>56.49471786823322</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.46956581579705</v>
+        <v>24.46956581582388</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>44.09670781101771</v>
+        <v>44.09670781102908</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>51.66474015103596</v>
+        <v>51.66474015106893</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>20.48103305361063</v>
+        <v>20.48103305358948</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>41.14297691861644</v>
+        <v>41.14297691868192</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>48.08310916772255</v>
+        <v>48.0831091677794</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.69968081781313</v>
+        <v>28.69968081781358</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>51.92901689683855</v>
+        <v>51.9290168967933</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>60.23279278946471</v>
+        <v>60.23279278945061</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>53.72765798408771</v>
+        <v>53.72765798408669</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>64.7686168586806</v>
+        <v>64.76861685865013</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>70.17457189064133</v>
+        <v>70.17457189067464</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>32.14113217681027</v>
+        <v>32.14113217678754</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>56.11852264283083</v>
+        <v>56.11852264286902</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>65.8876243058313</v>
+        <v>65.88762430583516</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>53.7168057821185</v>
+        <v>53.71680578208792</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>47.205854772915</v>
+        <v>47.20585477291705</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>58.24587878254577</v>
+        <v>58.24587878251951</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>63.6505843285007</v>
+        <v>63.65058432855481</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.62460008908907</v>
+        <v>25.62460008911385</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>49.59937300378304</v>
+        <v>49.59937300375962</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>59.36658511376355</v>
+        <v>59.3665851137648</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.33968858827937</v>
+        <v>27.33968858832268</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.96746814377387</v>
+        <v>46.96746814381025</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>54.53575418787669</v>
+        <v>54.53575418791227</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.35308318597388</v>
+        <v>23.3530831860255</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>44.01571897196401</v>
+        <v>44.01571897198481</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>50.95618566141955</v>
+        <v>50.95618566145298</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.57178302181783</v>
+        <v>31.57178302186547</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>54.80175244846235</v>
+        <v>54.80175244843166</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>63.10577512231588</v>
+        <v>63.10577512230178</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>56.60066077798511</v>
+        <v>56.60066077795612</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>67.6415878355359</v>
+        <v>67.64158783550964</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>73.04775329367122</v>
+        <v>73.04775329369475</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>35.01337328597661</v>
+        <v>35.0133732859923</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>58.99180323017673</v>
+        <v>58.99180323015695</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>68.76110671702109</v>
+        <v>68.76110671703326</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>45.6270750567388</v>
+        <v>45.62707505672641</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>39.11436400433648</v>
+        <v>39.11436400439878</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>50.15429896973158</v>
+        <v>50.15429896977285</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>55.55933573739502</v>
+        <v>55.55933573745413</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>17.53423484233825</v>
+        <v>17.53423484233586</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.50796531294144</v>
+        <v>41.50796531299078</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>51.27574877311712</v>
+        <v>51.27574877310052</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.25270051162816</v>
+        <v>19.25270051174446</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>38.87953990441575</v>
+        <v>38.8795399044967</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>46.44834174097387</v>
+        <v>46.44834174106425</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.2642317806643</v>
+        <v>15.26423178057597</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>35.92572275172948</v>
+        <v>35.92572275176222</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>42.86677406297177</v>
+        <v>42.86677406298121</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>23.4819450987063</v>
+        <v>23.48194509868027</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.71092418671684</v>
+        <v>46.7109241867755</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>55.01542425991202</v>
+        <v>55.01542425994442</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>48.50854983633586</v>
+        <v>48.50854983632222</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>59.54938784185832</v>
+        <v>59.54938784190129</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>64.95588452816672</v>
+        <v>64.95588452820969</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>26.92238776185478</v>
+        <v>26.92238776187058</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>50.89977530099632</v>
+        <v>50.89977530105226</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>60.66965017154017</v>
+        <v>60.66965017160145</v>
       </c>
     </row>
   </sheetData>
